--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_8_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_8_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3286410.461103365</v>
+        <v>3279834.748844731</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4895991.679432711</v>
+        <v>4895991.679432714</v>
       </c>
     </row>
     <row r="8">
@@ -661,10 +661,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -676,13 +676,13 @@
         <v>15.30273751513505</v>
       </c>
       <c r="H2" t="n">
-        <v>208.0250417001232</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -703,13 +703,13 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
@@ -718,7 +718,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>241.0142888776591</v>
+        <v>218.0792724223796</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -740,7 +740,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -749,16 +749,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>84.56713651463426</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -791,7 +791,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>30.44519606215119</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -803,10 +803,10 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -831,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -904,7 +904,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -913,58 +913,58 @@
         <v>15.30273751513505</v>
       </c>
       <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>190.1066023865956</v>
-      </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y5" t="n">
-        <v>241.0142888776591</v>
+        <v>168.1666138174382</v>
       </c>
     </row>
     <row r="6">
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>140.5948394095656</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -983,7 +983,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>49.3111039422953</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1034,7 +1034,7 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>241.0142888776591</v>
@@ -1043,7 +1043,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1077,10 +1077,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1095,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>14.83685490770591</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1135,10 +1135,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>168.1666138174382</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1195,10 +1195,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>168.1666138174382</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>241.0142888776591</v>
@@ -1214,10 +1214,10 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1235,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1259,28 +1259,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>88.91074279502504</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>29.05241763862477</v>
       </c>
     </row>
     <row r="10">
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1317,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1332,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634807</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1387,7 +1387,7 @@
         <v>411.3743728944864</v>
       </c>
       <c r="H11" t="n">
-        <v>299.2434379445493</v>
+        <v>299.2434379445492</v>
       </c>
       <c r="I11" t="n">
         <v>59.02761253284905</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>119.5024607932144</v>
+        <v>119.5024607932143</v>
       </c>
       <c r="T11" t="n">
         <v>205.8994334372419</v>
@@ -1469,7 +1469,7 @@
         <v>91.93589800962152</v>
       </c>
       <c r="I12" t="n">
-        <v>17.02994898176556</v>
+        <v>17.02994898176554</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1530,16 +1530,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>3.2081719574528</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.2288502284178</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>102.4584461802083</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>98.06165794823693</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>193.3074931070767</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>220.4164922362883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.222913222125</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>26.22037075102072</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1624,7 +1624,7 @@
         <v>411.3743728944864</v>
       </c>
       <c r="H14" t="n">
-        <v>299.2434379445493</v>
+        <v>299.2434379445492</v>
       </c>
       <c r="I14" t="n">
         <v>59.02761253284905</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>119.5024607932144</v>
+        <v>119.5024607932143</v>
       </c>
       <c r="T14" t="n">
         <v>205.8994334372419</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0313837381858</v>
+        <v>251.0313837381849</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1706,7 +1706,7 @@
         <v>91.93589800962152</v>
       </c>
       <c r="I15" t="n">
-        <v>17.02994898176556</v>
+        <v>17.02994898176554</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1767,13 +1767,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>98.06165794823693</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>41.06569894463254</v>
+        <v>193.3074931070767</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>220.4164922362883</v>
       </c>
       <c r="U16" t="n">
         <v>286.222913222125</v>
@@ -1830,10 +1830,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>180.5746262759718</v>
       </c>
     </row>
     <row r="17">
@@ -1861,10 +1861,10 @@
         <v>411.3743728944864</v>
       </c>
       <c r="H17" t="n">
-        <v>299.2434379445493</v>
+        <v>299.2434379445492</v>
       </c>
       <c r="I17" t="n">
-        <v>59.02761253284905</v>
+        <v>59.0276125328491</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>119.5024607932144</v>
+        <v>119.5024607932143</v>
       </c>
       <c r="T17" t="n">
         <v>205.8994334372419</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0313837381849</v>
+        <v>251.0313837381846</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1943,7 +1943,7 @@
         <v>91.93589800962152</v>
       </c>
       <c r="I18" t="n">
-        <v>17.02994898176556</v>
+        <v>17.02994898176554</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,13 +2001,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>102.649136853731</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2019,10 +2019,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>146.5602426058027</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>102.4584461802083</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>2.574484978227947</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>193.3074931070767</v>
       </c>
       <c r="T19" t="n">
-        <v>220.4164922362883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.222913222125</v>
@@ -2064,10 +2064,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>119.5024607932144</v>
+        <v>119.5024607932143</v>
       </c>
       <c r="T20" t="n">
         <v>205.8994334372419</v>
       </c>
       <c r="U20" t="n">
-        <v>251.0313837381858</v>
+        <v>251.0313837381846</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2180,7 +2180,7 @@
         <v>91.93589800962152</v>
       </c>
       <c r="I21" t="n">
-        <v>17.02994898176556</v>
+        <v>17.02994898176554</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,16 +2238,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2256,10 +2256,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>146.5602426058027</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>102.4584461802083</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>98.06165794823693</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>193.3074931070767</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>52.50933648676349</v>
+        <v>195.8819780853046</v>
       </c>
       <c r="U22" t="n">
         <v>286.222913222125</v>
@@ -2301,10 +2301,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634807</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2335,7 +2335,7 @@
         <v>411.3743728944864</v>
       </c>
       <c r="H23" t="n">
-        <v>299.2434379445493</v>
+        <v>299.2434379445492</v>
       </c>
       <c r="I23" t="n">
         <v>59.02761253284905</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>119.502460793214</v>
+        <v>119.5024607932143</v>
       </c>
       <c r="T23" t="n">
         <v>205.8994334372419</v>
@@ -2417,7 +2417,7 @@
         <v>91.93589800962152</v>
       </c>
       <c r="I24" t="n">
-        <v>17.02994898176556</v>
+        <v>17.02994898176554</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,25 +2475,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>18.85718915572322</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>146.5602426058027</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2526,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>193.3074931070767</v>
+        <v>155.2974660309534</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>220.4164922362883</v>
       </c>
       <c r="U25" t="n">
         <v>286.222913222125</v>
@@ -2541,10 +2541,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2572,10 +2572,10 @@
         <v>411.3743728944864</v>
       </c>
       <c r="H26" t="n">
-        <v>299.2434379445493</v>
+        <v>299.2434379445492</v>
       </c>
       <c r="I26" t="n">
-        <v>59.02761253284905</v>
+        <v>59.027612532849</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>119.5024607932144</v>
+        <v>119.502460793214</v>
       </c>
       <c r="T26" t="n">
         <v>205.8994334372419</v>
       </c>
       <c r="U26" t="n">
-        <v>251.0313837381849</v>
+        <v>251.0313837381846</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2654,7 +2654,7 @@
         <v>91.93589800962152</v>
       </c>
       <c r="I27" t="n">
-        <v>17.02994898176556</v>
+        <v>17.02994898176554</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2721,19 +2721,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.2288502284178</v>
       </c>
       <c r="H28" t="n">
         <v>146.5602426058027</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>102.4584461802083</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,16 +2763,16 @@
         <v>98.06165794823693</v>
       </c>
       <c r="S28" t="n">
-        <v>136.3426757550644</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>220.4164922362883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>48.35450423705501</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2809,7 +2809,7 @@
         <v>411.3743728944864</v>
       </c>
       <c r="H29" t="n">
-        <v>299.2434379445493</v>
+        <v>299.2434379445492</v>
       </c>
       <c r="I29" t="n">
         <v>59.02761253284905</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>119.5024607932144</v>
+        <v>119.5024607932143</v>
       </c>
       <c r="T29" t="n">
         <v>205.8994334372419</v>
@@ -2891,7 +2891,7 @@
         <v>91.93589800962152</v>
       </c>
       <c r="I30" t="n">
-        <v>17.02994898176556</v>
+        <v>17.02994898176554</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2958,16 +2958,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.2288502284178</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>55.51015535549388</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>98.06165794823693</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>193.3074931070767</v>
       </c>
       <c r="T31" t="n">
         <v>220.4164922362883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.222913222125</v>
       </c>
       <c r="V31" t="n">
-        <v>107.0800137505177</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3046,10 +3046,10 @@
         <v>411.3743728944864</v>
       </c>
       <c r="H32" t="n">
-        <v>299.2434379445493</v>
+        <v>299.2434379445492</v>
       </c>
       <c r="I32" t="n">
-        <v>59.02761253284905</v>
+        <v>59.0276125328491</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>119.5024607932144</v>
+        <v>119.5024607932143</v>
       </c>
       <c r="T32" t="n">
         <v>205.8994334372419</v>
@@ -3128,7 +3128,7 @@
         <v>91.93589800962152</v>
       </c>
       <c r="I33" t="n">
-        <v>17.02994898176556</v>
+        <v>17.02994898176554</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3189,10 +3189,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>53.51033939233083</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -3201,13 +3201,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>17.51844073704381</v>
+        <v>166.2288502284178</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>146.5602426058027</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>102.4584461802083</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,19 +3237,19 @@
         <v>98.06165794823693</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>193.3074931070767</v>
       </c>
       <c r="T34" t="n">
-        <v>220.4164922362883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.222913222125</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3280,10 +3280,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.3743728944862</v>
+        <v>411.3743728944864</v>
       </c>
       <c r="H35" t="n">
-        <v>299.2434379445493</v>
+        <v>299.2434379445492</v>
       </c>
       <c r="I35" t="n">
         <v>59.02761253284905</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>119.5024607932144</v>
+        <v>119.5024607932143</v>
       </c>
       <c r="T35" t="n">
         <v>205.8994334372419</v>
       </c>
       <c r="U35" t="n">
-        <v>251.0313837381846</v>
+        <v>251.031383738184</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3365,7 +3365,7 @@
         <v>91.93589800962152</v>
       </c>
       <c r="I36" t="n">
-        <v>17.02994898176556</v>
+        <v>17.02994898176554</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,25 +3423,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>68.87838860731316</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.2288502284178</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>146.5602426058027</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>98.06165794823693</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>193.3074931070767</v>
@@ -3480,10 +3480,10 @@
         <v>220.4164922362883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.222913222125</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3492,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>86.84512051320297</v>
       </c>
     </row>
     <row r="38">
@@ -3520,7 +3520,7 @@
         <v>411.3743728944864</v>
       </c>
       <c r="H38" t="n">
-        <v>299.2434379445493</v>
+        <v>299.2434379445484</v>
       </c>
       <c r="I38" t="n">
         <v>59.02761253284905</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>119.5024607932144</v>
+        <v>119.5024607932143</v>
       </c>
       <c r="T38" t="n">
-        <v>205.8994334372427</v>
+        <v>205.8994334372419</v>
       </c>
       <c r="U38" t="n">
-        <v>251.0313837381849</v>
+        <v>251.0313837381846</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3602,7 +3602,7 @@
         <v>91.93589800962152</v>
       </c>
       <c r="I39" t="n">
-        <v>17.02994898176556</v>
+        <v>17.02994898176554</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3663,7 +3663,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3675,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.2288502284178</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>146.5602426058027</v>
       </c>
       <c r="I40" t="n">
-        <v>102.4584461802083</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>98.06165794823693</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>58.97967972271225</v>
+        <v>193.3074931070767</v>
       </c>
       <c r="T40" t="n">
         <v>220.4164922362883</v>
@@ -3720,16 +3720,16 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>140.4053167103567</v>
       </c>
     </row>
     <row r="41">
@@ -3751,13 +3751,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417105</v>
       </c>
       <c r="G41" t="n">
         <v>411.3743728944864</v>
       </c>
       <c r="H41" t="n">
-        <v>299.2434379445493</v>
+        <v>299.2434379445492</v>
       </c>
       <c r="I41" t="n">
         <v>59.02761253284905</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>119.5024607932144</v>
+        <v>119.5024607932143</v>
       </c>
       <c r="T41" t="n">
-        <v>205.8994334372419</v>
+        <v>205.8994334372427</v>
       </c>
       <c r="U41" t="n">
         <v>251.0313837381846</v>
@@ -3839,7 +3839,7 @@
         <v>91.93589800962152</v>
       </c>
       <c r="I42" t="n">
-        <v>17.02994898176556</v>
+        <v>17.02994898176554</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3900,25 +3900,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.2288502284178</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>146.5602426058027</v>
       </c>
       <c r="I43" t="n">
-        <v>102.4584461802083</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>12.79599024436336</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>220.4164922362883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>79.16315974540628</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3994,10 +3994,10 @@
         <v>411.3743728944864</v>
       </c>
       <c r="H44" t="n">
-        <v>299.2434379445493</v>
+        <v>299.2434379445492</v>
       </c>
       <c r="I44" t="n">
-        <v>59.02761253284905</v>
+        <v>59.02761253284824</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>119.5024607932144</v>
+        <v>119.5024607932143</v>
       </c>
       <c r="T44" t="n">
         <v>205.8994334372419</v>
@@ -4076,7 +4076,7 @@
         <v>91.93589800962152</v>
       </c>
       <c r="I45" t="n">
-        <v>17.02994898176556</v>
+        <v>17.02994898176554</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4149,13 +4149,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.2288502284178</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>146.5602426058027</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>27.64622273406509</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4188,7 +4188,7 @@
         <v>193.3074931070767</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>220.4164922362883</v>
       </c>
       <c r="U46" t="n">
         <v>286.222913222125</v>
@@ -4197,13 +4197,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>248.512971260468</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>495.259035872464</v>
+        <v>297.2027203719481</v>
       </c>
       <c r="C2" t="n">
-        <v>251.810259228364</v>
+        <v>297.2027203719481</v>
       </c>
       <c r="D2" t="n">
-        <v>251.810259228364</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="E2" t="n">
-        <v>251.810259228364</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="F2" t="n">
-        <v>244.8647584791605</v>
+        <v>46.80844297864461</v>
       </c>
       <c r="G2" t="n">
-        <v>229.407447857812</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H2" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I2" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J2" t="n">
         <v>19.28114311021272</v>
@@ -4351,31 +4351,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S2" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T2" t="n">
-        <v>738.7078125165641</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U2" t="n">
-        <v>738.7078125165641</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="V2" t="n">
-        <v>495.259035872464</v>
+        <v>297.2027203719481</v>
       </c>
       <c r="W2" t="n">
-        <v>495.259035872464</v>
+        <v>297.2027203719481</v>
       </c>
       <c r="X2" t="n">
-        <v>495.259035872464</v>
+        <v>297.2027203719481</v>
       </c>
       <c r="Y2" t="n">
-        <v>495.259035872464</v>
+        <v>297.2027203719481</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>557.2375949899332</v>
+        <v>588.0815197256143</v>
       </c>
       <c r="C3" t="n">
-        <v>557.2375949899332</v>
+        <v>413.6284904444873</v>
       </c>
       <c r="D3" t="n">
-        <v>408.3031853286819</v>
+        <v>264.694080783236</v>
       </c>
       <c r="E3" t="n">
-        <v>249.0657303232264</v>
+        <v>105.4566257777805</v>
       </c>
       <c r="F3" t="n">
-        <v>249.0657303232264</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G3" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H3" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I3" t="n">
         <v>20.03527576299844</v>
@@ -4418,16 +4418,16 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M3" t="n">
-        <v>473.4149733950735</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N3" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O3" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P3" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
@@ -4439,22 +4439,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T3" t="n">
-        <v>933.304432215534</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U3" t="n">
-        <v>933.304432215534</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V3" t="n">
-        <v>933.304432215534</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W3" t="n">
-        <v>933.304432215534</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X3" t="n">
-        <v>725.4529320100012</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y3" t="n">
-        <v>725.4529320100012</v>
+        <v>756.2968567456824</v>
       </c>
     </row>
     <row r="4">
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G4" t="n">
         <v>19.28114311021272</v>
@@ -4533,7 +4533,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Y4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>528.5815077689649</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="C5" t="n">
-        <v>528.5815077689649</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="D5" t="n">
-        <v>528.5815077689649</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="E5" t="n">
-        <v>285.1327311248648</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="F5" t="n">
-        <v>278.1872303756613</v>
+        <v>46.80844297864461</v>
       </c>
       <c r="G5" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4588,31 +4588,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V5" t="n">
-        <v>772.0302844130649</v>
+        <v>710.516763498309</v>
       </c>
       <c r="W5" t="n">
-        <v>772.0302844130649</v>
+        <v>467.067986854209</v>
       </c>
       <c r="X5" t="n">
-        <v>772.0302844130649</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="Y5" t="n">
-        <v>528.5815077689649</v>
+        <v>53.75394372784808</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>269.5723599112974</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C6" t="n">
-        <v>269.5723599112974</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D6" t="n">
-        <v>269.5723599112974</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E6" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F6" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G6" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H6" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I6" t="n">
         <v>20.03527576299844</v>
@@ -4649,19 +4649,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M6" t="n">
-        <v>613.2059550252818</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N6" t="n">
-        <v>851.8101010141643</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O6" t="n">
-        <v>851.8101010141643</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P6" t="n">
         <v>964.0571555106362</v>
@@ -4670,28 +4670,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>862.8876260635219</v>
+        <v>914.2479596093278</v>
       </c>
       <c r="S6" t="n">
-        <v>862.8876260635219</v>
+        <v>914.2479596093278</v>
       </c>
       <c r="T6" t="n">
-        <v>862.8876260635219</v>
+        <v>914.2479596093278</v>
       </c>
       <c r="U6" t="n">
-        <v>862.8876260635219</v>
+        <v>914.2479596093278</v>
       </c>
       <c r="V6" t="n">
-        <v>862.8876260635219</v>
+        <v>679.0958513775852</v>
       </c>
       <c r="W6" t="n">
-        <v>619.4388494194218</v>
+        <v>435.6470747334852</v>
       </c>
       <c r="X6" t="n">
-        <v>411.587349213889</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="Y6" t="n">
-        <v>411.587349213889</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>136.0777814360265</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C7" t="n">
-        <v>136.0777814360265</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D7" t="n">
-        <v>136.0777814360265</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E7" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F7" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G7" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4743,34 +4743,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>136.0777814360265</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>136.0777814360265</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>136.0777814360265</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V7" t="n">
-        <v>136.0777814360265</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
-        <v>136.0777814360265</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X7" t="n">
-        <v>136.0777814360265</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y7" t="n">
-        <v>136.0777814360265</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="8">
@@ -4780,10 +4780,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>53.75394372784808</v>
+        <v>467.067986854209</v>
       </c>
       <c r="C8" t="n">
-        <v>53.75394372784808</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="D8" t="n">
         <v>53.75394372784808</v>
@@ -4843,13 +4843,13 @@
         <v>953.9655401424092</v>
       </c>
       <c r="W8" t="n">
+        <v>953.9655401424092</v>
+      </c>
+      <c r="X8" t="n">
+        <v>953.9655401424092</v>
+      </c>
+      <c r="Y8" t="n">
         <v>710.516763498309</v>
-      </c>
-      <c r="X8" t="n">
-        <v>540.6514970160482</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>297.2027203719481</v>
       </c>
     </row>
     <row r="9">
@@ -4859,46 +4859,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>342.668582052591</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C9" t="n">
-        <v>168.215552771464</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M9" t="n">
-        <v>613.2059550252818</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N9" t="n">
-        <v>781.4136778972854</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O9" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P9" t="n">
         <v>964.0571555106362</v>
@@ -4907,28 +4907,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>773.078794957436</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>570.892200316202</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>342.668582052591</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V9" t="n">
-        <v>342.668582052591</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W9" t="n">
-        <v>342.668582052591</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X9" t="n">
-        <v>342.668582052591</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y9" t="n">
-        <v>342.668582052591</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -4980,34 +4980,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="11">
@@ -5023,16 +5023,16 @@
         <v>2028.739359271331</v>
       </c>
       <c r="D11" t="n">
-        <v>1670.473660664581</v>
+        <v>1670.47366066458</v>
       </c>
       <c r="E11" t="n">
-        <v>1284.685408066337</v>
+        <v>1284.685408066336</v>
       </c>
       <c r="F11" t="n">
-        <v>873.699503276729</v>
+        <v>873.6995032767284</v>
       </c>
       <c r="G11" t="n">
-        <v>458.1698336863383</v>
+        <v>458.169833686338</v>
       </c>
       <c r="H11" t="n">
         <v>155.9037347524499</v>
@@ -5044,16 +5044,16 @@
         <v>414.5309736026617</v>
       </c>
       <c r="K11" t="n">
-        <v>706.1640462628617</v>
+        <v>1012.251663516281</v>
       </c>
       <c r="L11" t="n">
-        <v>1499.966043721801</v>
+        <v>1806.05366097522</v>
       </c>
       <c r="M11" t="n">
-        <v>1954.811862480317</v>
+        <v>2260.899479733737</v>
       </c>
       <c r="N11" t="n">
-        <v>2854.604825659707</v>
+        <v>2854.604825659706</v>
       </c>
       <c r="O11" t="n">
         <v>3659.066167834896</v>
@@ -5120,22 +5120,22 @@
         <v>96.27988370916803</v>
       </c>
       <c r="J12" t="n">
-        <v>167.304547941494</v>
+        <v>292.1346729284988</v>
       </c>
       <c r="K12" t="n">
-        <v>366.8518364815407</v>
+        <v>491.6819614685455</v>
       </c>
       <c r="L12" t="n">
-        <v>681.490332743711</v>
+        <v>806.3204577307159</v>
       </c>
       <c r="M12" t="n">
-        <v>1068.015485514818</v>
+        <v>1192.845610501823</v>
       </c>
       <c r="N12" t="n">
-        <v>1647.383083153215</v>
+        <v>1604.009578841041</v>
       </c>
       <c r="O12" t="n">
-        <v>2001.297991583547</v>
+        <v>1957.924487271373</v>
       </c>
       <c r="P12" t="n">
         <v>2266.012841045097</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>515.594286795224</v>
+        <v>583.2545213934404</v>
       </c>
       <c r="C13" t="n">
-        <v>515.594286795224</v>
+        <v>414.3183384655335</v>
       </c>
       <c r="D13" t="n">
-        <v>515.594286795224</v>
+        <v>411.0777607307327</v>
       </c>
       <c r="E13" t="n">
-        <v>367.6811932128309</v>
+        <v>411.0777607307327</v>
       </c>
       <c r="F13" t="n">
-        <v>367.6811932128309</v>
+        <v>264.1878132328224</v>
       </c>
       <c r="G13" t="n">
-        <v>199.7732636891765</v>
+        <v>96.27988370916803</v>
       </c>
       <c r="H13" t="n">
-        <v>199.7732636891765</v>
+        <v>96.27988370916803</v>
       </c>
       <c r="I13" t="n">
         <v>96.27988370916803</v>
@@ -5205,16 +5205,16 @@
         <v>307.8242952223059</v>
       </c>
       <c r="L13" t="n">
-        <v>594.4991583642275</v>
+        <v>594.4991583642276</v>
       </c>
       <c r="M13" t="n">
-        <v>907.1467298601159</v>
+        <v>907.146729860116</v>
       </c>
       <c r="N13" t="n">
-        <v>1217.794857329367</v>
+        <v>1217.794857329368</v>
       </c>
       <c r="O13" t="n">
-        <v>1488.712387389158</v>
+        <v>1488.712387389159</v>
       </c>
       <c r="P13" t="n">
         <v>1697.008454575987</v>
@@ -5223,28 +5223,28 @@
         <v>1757.786774508075</v>
       </c>
       <c r="R13" t="n">
-        <v>1658.734594762381</v>
+        <v>1757.786774508075</v>
       </c>
       <c r="S13" t="n">
-        <v>1463.474500714829</v>
+        <v>1757.786774508075</v>
       </c>
       <c r="T13" t="n">
-        <v>1240.831579264032</v>
+        <v>1757.786774508075</v>
       </c>
       <c r="U13" t="n">
-        <v>951.7175255043101</v>
+        <v>1757.786774508075</v>
       </c>
       <c r="V13" t="n">
-        <v>951.7175255043101</v>
+        <v>1503.102286302188</v>
       </c>
       <c r="W13" t="n">
-        <v>951.7175255043101</v>
+        <v>1213.685116265228</v>
       </c>
       <c r="X13" t="n">
-        <v>723.7279746062927</v>
+        <v>985.6955653672103</v>
       </c>
       <c r="Y13" t="n">
-        <v>697.2427516254637</v>
+        <v>764.9029862236802</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2397.701876211741</v>
+        <v>2397.701876211742</v>
       </c>
       <c r="C14" t="n">
-        <v>2028.73935927133</v>
+        <v>2028.739359271331</v>
       </c>
       <c r="D14" t="n">
-        <v>1670.473660664579</v>
+        <v>1670.47366066458</v>
       </c>
       <c r="E14" t="n">
-        <v>1284.685408066335</v>
+        <v>1284.685408066336</v>
       </c>
       <c r="F14" t="n">
-        <v>873.6995032767277</v>
+        <v>873.6995032767286</v>
       </c>
       <c r="G14" t="n">
         <v>458.169833686338</v>
@@ -5278,19 +5278,19 @@
         <v>96.27988370916803</v>
       </c>
       <c r="J14" t="n">
-        <v>247.1253245823087</v>
+        <v>414.5309736026617</v>
       </c>
       <c r="K14" t="n">
-        <v>844.8460144959276</v>
+        <v>1012.251663516281</v>
       </c>
       <c r="L14" t="n">
-        <v>1487.921100731761</v>
+        <v>1806.05366097522</v>
       </c>
       <c r="M14" t="n">
-        <v>2387.785317648182</v>
+        <v>2260.899479733737</v>
       </c>
       <c r="N14" t="n">
-        <v>2854.604825659707</v>
+        <v>2854.604825659706</v>
       </c>
       <c r="O14" t="n">
         <v>3659.066167834896</v>
@@ -5311,19 +5311,19 @@
         <v>4485.305403407436</v>
       </c>
       <c r="U14" t="n">
-        <v>4231.73834912644</v>
+        <v>4231.738349126441</v>
       </c>
       <c r="V14" t="n">
-        <v>3900.675461782869</v>
+        <v>3900.67546178287</v>
       </c>
       <c r="W14" t="n">
-        <v>3547.906806512755</v>
+        <v>3547.906806512756</v>
       </c>
       <c r="X14" t="n">
-        <v>3174.441048251675</v>
+        <v>3174.441048251676</v>
       </c>
       <c r="Y14" t="n">
-        <v>2784.301716275863</v>
+        <v>2784.301716275864</v>
       </c>
     </row>
     <row r="15">
@@ -5357,19 +5357,19 @@
         <v>96.27988370916803</v>
       </c>
       <c r="J15" t="n">
-        <v>167.304547941494</v>
+        <v>292.1346729284988</v>
       </c>
       <c r="K15" t="n">
-        <v>535.0554657807195</v>
+        <v>491.6819614685455</v>
       </c>
       <c r="L15" t="n">
-        <v>849.6939620428899</v>
+        <v>806.3204577307159</v>
       </c>
       <c r="M15" t="n">
         <v>1236.219114813997</v>
       </c>
       <c r="N15" t="n">
-        <v>1647.383083153215</v>
+        <v>1647.383083153214</v>
       </c>
       <c r="O15" t="n">
         <v>2001.297991583547</v>
@@ -5412,13 +5412,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>563.2457996318037</v>
+        <v>96.27988370916803</v>
       </c>
       <c r="C16" t="n">
-        <v>394.3096167038968</v>
+        <v>96.27988370916803</v>
       </c>
       <c r="D16" t="n">
-        <v>244.1929772915611</v>
+        <v>96.27988370916803</v>
       </c>
       <c r="E16" t="n">
         <v>96.27988370916803</v>
@@ -5442,16 +5442,16 @@
         <v>307.8242952223059</v>
       </c>
       <c r="L16" t="n">
-        <v>594.4991583642275</v>
+        <v>594.4991583642276</v>
       </c>
       <c r="M16" t="n">
-        <v>907.1467298601159</v>
+        <v>907.146729860116</v>
       </c>
       <c r="N16" t="n">
-        <v>1217.794857329367</v>
+        <v>1217.794857329368</v>
       </c>
       <c r="O16" t="n">
-        <v>1488.712387389158</v>
+        <v>1488.712387389159</v>
       </c>
       <c r="P16" t="n">
         <v>1697.008454575987</v>
@@ -5460,28 +5460,28 @@
         <v>1757.786774508075</v>
       </c>
       <c r="R16" t="n">
-        <v>1658.734594762381</v>
+        <v>1757.786774508075</v>
       </c>
       <c r="S16" t="n">
-        <v>1617.254090777904</v>
+        <v>1562.526680460523</v>
       </c>
       <c r="T16" t="n">
-        <v>1617.254090777904</v>
+        <v>1339.883759009727</v>
       </c>
       <c r="U16" t="n">
-        <v>1328.140037018181</v>
+        <v>1050.769705250004</v>
       </c>
       <c r="V16" t="n">
-        <v>1073.455548812294</v>
+        <v>796.0852170441175</v>
       </c>
       <c r="W16" t="n">
-        <v>784.0383787753339</v>
+        <v>506.6680470071569</v>
       </c>
       <c r="X16" t="n">
-        <v>784.0383787753339</v>
+        <v>278.6784961091395</v>
       </c>
       <c r="Y16" t="n">
-        <v>563.2457996318037</v>
+        <v>96.27988370916803</v>
       </c>
     </row>
     <row r="17">
@@ -5494,7 +5494,7 @@
         <v>2397.701876211742</v>
       </c>
       <c r="C17" t="n">
-        <v>2028.73935927133</v>
+        <v>2028.739359271331</v>
       </c>
       <c r="D17" t="n">
         <v>1670.47366066458</v>
@@ -5509,7 +5509,7 @@
         <v>458.1698336863381</v>
       </c>
       <c r="H17" t="n">
-        <v>155.9037347524499</v>
+        <v>155.90373475245</v>
       </c>
       <c r="I17" t="n">
         <v>96.27988370916803</v>
@@ -5518,22 +5518,22 @@
         <v>414.5309736026617</v>
       </c>
       <c r="K17" t="n">
-        <v>691.3477050708275</v>
+        <v>1012.251663516281</v>
       </c>
       <c r="L17" t="n">
-        <v>1485.149702529767</v>
+        <v>1806.05366097522</v>
       </c>
       <c r="M17" t="n">
-        <v>2165.003703233623</v>
+        <v>2387.785317648181</v>
       </c>
       <c r="N17" t="n">
-        <v>3064.796666413013</v>
+        <v>2854.604825659706</v>
       </c>
       <c r="O17" t="n">
-        <v>3869.258008588201</v>
+        <v>3659.066167834896</v>
       </c>
       <c r="P17" t="n">
-        <v>4518.172769356253</v>
+        <v>4307.980928602947</v>
       </c>
       <c r="Q17" t="n">
         <v>4718.067129459338</v>
@@ -5545,19 +5545,19 @@
         <v>4693.284629101619</v>
       </c>
       <c r="T17" t="n">
-        <v>4485.305403407435</v>
+        <v>4485.305403407436</v>
       </c>
       <c r="U17" t="n">
-        <v>4231.73834912644</v>
+        <v>4231.738349126441</v>
       </c>
       <c r="V17" t="n">
-        <v>3900.675461782869</v>
+        <v>3900.67546178287</v>
       </c>
       <c r="W17" t="n">
-        <v>3547.906806512755</v>
+        <v>3547.906806512756</v>
       </c>
       <c r="X17" t="n">
-        <v>3174.441048251675</v>
+        <v>3174.441048251676</v>
       </c>
       <c r="Y17" t="n">
         <v>2784.301716275864</v>
@@ -5594,22 +5594,22 @@
         <v>96.27988370916803</v>
       </c>
       <c r="J18" t="n">
-        <v>167.304547941494</v>
+        <v>292.1346729284988</v>
       </c>
       <c r="K18" t="n">
-        <v>535.0554657807195</v>
+        <v>491.6819614685455</v>
       </c>
       <c r="L18" t="n">
-        <v>849.6939620428899</v>
+        <v>806.3204577307159</v>
       </c>
       <c r="M18" t="n">
-        <v>1236.219114813997</v>
+        <v>1192.845610501823</v>
       </c>
       <c r="N18" t="n">
-        <v>1647.383083153215</v>
+        <v>1604.009578841041</v>
       </c>
       <c r="O18" t="n">
-        <v>2001.297991583547</v>
+        <v>1957.924487271373</v>
       </c>
       <c r="P18" t="n">
         <v>2266.012841045097</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3723.074146076516</v>
+        <v>96.27988370916803</v>
       </c>
       <c r="C19" t="n">
-        <v>3554.137963148609</v>
+        <v>96.27988370916803</v>
       </c>
       <c r="D19" t="n">
-        <v>3404.021323736273</v>
+        <v>96.27988370916803</v>
       </c>
       <c r="E19" t="n">
-        <v>3404.021323736273</v>
+        <v>96.27988370916803</v>
       </c>
       <c r="F19" t="n">
-        <v>3404.021323736273</v>
+        <v>96.27988370916803</v>
       </c>
       <c r="G19" t="n">
-        <v>3404.021323736273</v>
+        <v>96.27988370916803</v>
       </c>
       <c r="H19" t="n">
-        <v>3255.980674639503</v>
+        <v>96.27988370916803</v>
       </c>
       <c r="I19" t="n">
-        <v>3152.487294659495</v>
+        <v>96.27988370916803</v>
       </c>
       <c r="J19" t="n">
-        <v>3183.398410542945</v>
+        <v>127.1909995926188</v>
       </c>
       <c r="K19" t="n">
-        <v>3364.031706172632</v>
+        <v>307.8242952223059</v>
       </c>
       <c r="L19" t="n">
-        <v>3650.706569314554</v>
+        <v>594.4991583642276</v>
       </c>
       <c r="M19" t="n">
-        <v>3963.354140810442</v>
+        <v>907.146729860116</v>
       </c>
       <c r="N19" t="n">
-        <v>4274.002268279693</v>
+        <v>1217.794857329368</v>
       </c>
       <c r="O19" t="n">
-        <v>4544.919798339484</v>
+        <v>1488.712387389159</v>
       </c>
       <c r="P19" t="n">
-        <v>4753.215865526313</v>
+        <v>1697.008454575987</v>
       </c>
       <c r="Q19" t="n">
-        <v>4813.994185458401</v>
+        <v>1757.786774508075</v>
       </c>
       <c r="R19" t="n">
-        <v>4813.994185458401</v>
+        <v>1755.186284631077</v>
       </c>
       <c r="S19" t="n">
-        <v>4813.994185458401</v>
+        <v>1559.926190583525</v>
       </c>
       <c r="T19" t="n">
-        <v>4591.351264007605</v>
+        <v>1559.926190583525</v>
       </c>
       <c r="U19" t="n">
-        <v>4302.237210247883</v>
+        <v>1270.812136823803</v>
       </c>
       <c r="V19" t="n">
-        <v>4047.552722041996</v>
+        <v>1016.127648617916</v>
       </c>
       <c r="W19" t="n">
-        <v>4047.552722041996</v>
+        <v>726.7104785809552</v>
       </c>
       <c r="X19" t="n">
-        <v>4047.552722041996</v>
+        <v>498.7209276829378</v>
       </c>
       <c r="Y19" t="n">
-        <v>3826.760142898466</v>
+        <v>277.9283485394078</v>
       </c>
     </row>
     <row r="20">
@@ -5731,7 +5731,7 @@
         <v>2397.701876211742</v>
       </c>
       <c r="C20" t="n">
-        <v>2028.73935927133</v>
+        <v>2028.739359271331</v>
       </c>
       <c r="D20" t="n">
         <v>1670.47366066458</v>
@@ -5743,7 +5743,7 @@
         <v>873.6995032767284</v>
       </c>
       <c r="G20" t="n">
-        <v>458.169833686338</v>
+        <v>458.1698336863381</v>
       </c>
       <c r="H20" t="n">
         <v>155.9037347524499</v>
@@ -5761,16 +5761,16 @@
         <v>1806.05366097522</v>
       </c>
       <c r="M20" t="n">
-        <v>2483.584424323391</v>
+        <v>2260.899479733737</v>
       </c>
       <c r="N20" t="n">
-        <v>3383.37738750278</v>
+        <v>2854.604825659706</v>
       </c>
       <c r="O20" t="n">
-        <v>4187.838729677969</v>
+        <v>3659.066167834896</v>
       </c>
       <c r="P20" t="n">
-        <v>4518.172769356253</v>
+        <v>4307.980928602947</v>
       </c>
       <c r="Q20" t="n">
         <v>4718.067129459338</v>
@@ -5785,13 +5785,13 @@
         <v>4485.305403407436</v>
       </c>
       <c r="U20" t="n">
-        <v>4231.73834912644</v>
+        <v>4231.738349126441</v>
       </c>
       <c r="V20" t="n">
         <v>3900.67546178287</v>
       </c>
       <c r="W20" t="n">
-        <v>3547.906806512755</v>
+        <v>3547.906806512756</v>
       </c>
       <c r="X20" t="n">
         <v>3174.441048251676</v>
@@ -5834,25 +5834,25 @@
         <v>167.304547941494</v>
       </c>
       <c r="K21" t="n">
-        <v>366.8518364815407</v>
+        <v>628.6724211239936</v>
       </c>
       <c r="L21" t="n">
-        <v>681.490332743711</v>
+        <v>943.310917386164</v>
       </c>
       <c r="M21" t="n">
-        <v>1414.157165854283</v>
+        <v>1329.836070157271</v>
       </c>
       <c r="N21" t="n">
-        <v>1825.321134193501</v>
+        <v>1741.000038496489</v>
       </c>
       <c r="O21" t="n">
-        <v>2179.236042623833</v>
+        <v>2094.914946926821</v>
       </c>
       <c r="P21" t="n">
-        <v>2443.950892085383</v>
+        <v>2359.629796388371</v>
       </c>
       <c r="Q21" t="n">
-        <v>2570.986562194853</v>
+        <v>2601.025026013057</v>
       </c>
       <c r="R21" t="n">
         <v>2601.025026013057</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>645.8436457806757</v>
+        <v>96.27988370916803</v>
       </c>
       <c r="C22" t="n">
-        <v>645.8436457806757</v>
+        <v>96.27988370916803</v>
       </c>
       <c r="D22" t="n">
-        <v>495.72700636834</v>
+        <v>96.27988370916803</v>
       </c>
       <c r="E22" t="n">
-        <v>347.8139127859469</v>
+        <v>96.27988370916803</v>
       </c>
       <c r="F22" t="n">
-        <v>347.8139127859469</v>
+        <v>96.27988370916803</v>
       </c>
       <c r="G22" t="n">
-        <v>347.8139127859469</v>
+        <v>96.27988370916803</v>
       </c>
       <c r="H22" t="n">
-        <v>199.7732636891765</v>
+        <v>96.27988370916803</v>
       </c>
       <c r="I22" t="n">
         <v>96.27988370916803</v>
@@ -5916,16 +5916,16 @@
         <v>307.8242952223059</v>
       </c>
       <c r="L22" t="n">
-        <v>594.4991583642275</v>
+        <v>594.4991583642276</v>
       </c>
       <c r="M22" t="n">
-        <v>907.1467298601159</v>
+        <v>907.146729860116</v>
       </c>
       <c r="N22" t="n">
-        <v>1217.794857329367</v>
+        <v>1217.794857329368</v>
       </c>
       <c r="O22" t="n">
-        <v>1488.712387389158</v>
+        <v>1488.712387389159</v>
       </c>
       <c r="P22" t="n">
         <v>1697.008454575987</v>
@@ -5934,28 +5934,28 @@
         <v>1757.786774508075</v>
       </c>
       <c r="R22" t="n">
-        <v>1658.734594762381</v>
+        <v>1757.786774508075</v>
       </c>
       <c r="S22" t="n">
-        <v>1463.474500714829</v>
+        <v>1757.786774508075</v>
       </c>
       <c r="T22" t="n">
-        <v>1410.434766889815</v>
+        <v>1559.926190583525</v>
       </c>
       <c r="U22" t="n">
-        <v>1121.320713130093</v>
+        <v>1270.812136823803</v>
       </c>
       <c r="V22" t="n">
-        <v>866.6362249242059</v>
+        <v>1016.127648617916</v>
       </c>
       <c r="W22" t="n">
-        <v>866.6362249242059</v>
+        <v>726.7104785809552</v>
       </c>
       <c r="X22" t="n">
-        <v>866.6362249242059</v>
+        <v>498.7209276829378</v>
       </c>
       <c r="Y22" t="n">
-        <v>645.8436457806757</v>
+        <v>277.9283485394078</v>
       </c>
     </row>
     <row r="23">
@@ -5980,7 +5980,7 @@
         <v>873.6995032767284</v>
       </c>
       <c r="G23" t="n">
-        <v>458.1698336863381</v>
+        <v>458.169833686338</v>
       </c>
       <c r="H23" t="n">
         <v>155.9037347524499</v>
@@ -5989,28 +5989,28 @@
         <v>96.27988370916803</v>
       </c>
       <c r="J23" t="n">
-        <v>247.1253245823087</v>
+        <v>414.5309736026617</v>
       </c>
       <c r="K23" t="n">
-        <v>844.8460144959276</v>
+        <v>1012.251663516281</v>
       </c>
       <c r="L23" t="n">
-        <v>1638.648011954867</v>
+        <v>1806.05366097522</v>
       </c>
       <c r="M23" t="n">
-        <v>2538.512228871287</v>
+        <v>2387.785317648181</v>
       </c>
       <c r="N23" t="n">
-        <v>3129.855922087265</v>
+        <v>2854.604825659706</v>
       </c>
       <c r="O23" t="n">
-        <v>3934.317264262454</v>
+        <v>3659.066167834896</v>
       </c>
       <c r="P23" t="n">
-        <v>4583.232025030505</v>
+        <v>4307.980928602947</v>
       </c>
       <c r="Q23" t="n">
-        <v>4783.12638513359</v>
+        <v>4718.067129459338</v>
       </c>
       <c r="R23" t="n">
         <v>4813.994185458401</v>
@@ -6071,22 +6071,22 @@
         <v>167.304547941494</v>
       </c>
       <c r="K24" t="n">
-        <v>366.8518364815407</v>
+        <v>366.8518364815408</v>
       </c>
       <c r="L24" t="n">
-        <v>681.490332743711</v>
+        <v>681.4903327437112</v>
       </c>
       <c r="M24" t="n">
         <v>1068.015485514818</v>
       </c>
       <c r="N24" t="n">
-        <v>1647.383083153215</v>
+        <v>1479.179453854036</v>
       </c>
       <c r="O24" t="n">
-        <v>2001.297991583547</v>
+        <v>1833.094362284368</v>
       </c>
       <c r="P24" t="n">
-        <v>2266.012841045097</v>
+        <v>2413.087352699456</v>
       </c>
       <c r="Q24" t="n">
         <v>2601.025026013057</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3766.470713594418</v>
+        <v>96.27988370916803</v>
       </c>
       <c r="C25" t="n">
-        <v>3597.534530666511</v>
+        <v>96.27988370916803</v>
       </c>
       <c r="D25" t="n">
-        <v>3447.417891254175</v>
+        <v>96.27988370916803</v>
       </c>
       <c r="E25" t="n">
-        <v>3447.417891254175</v>
+        <v>96.27988370916803</v>
       </c>
       <c r="F25" t="n">
-        <v>3300.527943756265</v>
+        <v>96.27988370916803</v>
       </c>
       <c r="G25" t="n">
-        <v>3300.527943756265</v>
+        <v>96.27988370916803</v>
       </c>
       <c r="H25" t="n">
-        <v>3152.487294659495</v>
+        <v>96.27988370916803</v>
       </c>
       <c r="I25" t="n">
-        <v>3152.487294659495</v>
+        <v>96.27988370916803</v>
       </c>
       <c r="J25" t="n">
-        <v>3183.398410542945</v>
+        <v>127.1909995926188</v>
       </c>
       <c r="K25" t="n">
-        <v>3364.031706172632</v>
+        <v>307.8242952223059</v>
       </c>
       <c r="L25" t="n">
-        <v>3650.706569314554</v>
+        <v>594.4991583642276</v>
       </c>
       <c r="M25" t="n">
-        <v>3963.354140810442</v>
+        <v>907.146729860116</v>
       </c>
       <c r="N25" t="n">
-        <v>4274.002268279693</v>
+        <v>1217.794857329368</v>
       </c>
       <c r="O25" t="n">
-        <v>4544.919798339484</v>
+        <v>1488.712387389159</v>
       </c>
       <c r="P25" t="n">
-        <v>4753.215865526313</v>
+        <v>1697.008454575987</v>
       </c>
       <c r="Q25" t="n">
-        <v>4813.994185458401</v>
+        <v>1757.786774508075</v>
       </c>
       <c r="R25" t="n">
-        <v>4813.994185458401</v>
+        <v>1757.786774508075</v>
       </c>
       <c r="S25" t="n">
-        <v>4618.734091410849</v>
+        <v>1600.920647204082</v>
       </c>
       <c r="T25" t="n">
-        <v>4618.734091410849</v>
+        <v>1378.277725753285</v>
       </c>
       <c r="U25" t="n">
-        <v>4329.620037651127</v>
+        <v>1089.163671993563</v>
       </c>
       <c r="V25" t="n">
-        <v>4074.93554944524</v>
+        <v>834.4791837876762</v>
       </c>
       <c r="W25" t="n">
-        <v>3785.51837940828</v>
+        <v>545.0620137507156</v>
       </c>
       <c r="X25" t="n">
-        <v>3785.51837940828</v>
+        <v>317.0724628526982</v>
       </c>
       <c r="Y25" t="n">
-        <v>3785.51837940828</v>
+        <v>96.27988370916803</v>
       </c>
     </row>
     <row r="26">
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2397.701876211743</v>
+        <v>2397.701876211742</v>
       </c>
       <c r="C26" t="n">
         <v>2028.739359271331</v>
@@ -6214,43 +6214,43 @@
         <v>1284.685408066336</v>
       </c>
       <c r="F26" t="n">
-        <v>873.6995032767284</v>
+        <v>873.6995032767283</v>
       </c>
       <c r="G26" t="n">
-        <v>458.1698336863381</v>
+        <v>458.1698336863379</v>
       </c>
       <c r="H26" t="n">
         <v>155.9037347524499</v>
       </c>
       <c r="I26" t="n">
-        <v>96.27988370916805</v>
+        <v>96.27988370916803</v>
       </c>
       <c r="J26" t="n">
         <v>247.1253245823087</v>
       </c>
       <c r="K26" t="n">
-        <v>844.8460144959276</v>
+        <v>789.9182099480304</v>
       </c>
       <c r="L26" t="n">
-        <v>1638.648011954867</v>
+        <v>1583.72020740697</v>
       </c>
       <c r="M26" t="n">
-        <v>2230.062958907876</v>
+        <v>2483.584424323391</v>
       </c>
       <c r="N26" t="n">
-        <v>3129.855922087266</v>
+        <v>3383.37738750278</v>
       </c>
       <c r="O26" t="n">
-        <v>3934.317264262455</v>
+        <v>4187.838729677969</v>
       </c>
       <c r="P26" t="n">
-        <v>4583.232025030506</v>
+        <v>4518.172769356253</v>
       </c>
       <c r="Q26" t="n">
-        <v>4783.126385133591</v>
+        <v>4718.067129459338</v>
       </c>
       <c r="R26" t="n">
-        <v>4813.994185458402</v>
+        <v>4813.994185458401</v>
       </c>
       <c r="S26" t="n">
         <v>4693.284629101619</v>
@@ -6262,7 +6262,7 @@
         <v>4231.738349126441</v>
       </c>
       <c r="V26" t="n">
-        <v>3900.675461782871</v>
+        <v>3900.67546178287</v>
       </c>
       <c r="W26" t="n">
         <v>3547.906806512756</v>
@@ -6271,7 +6271,7 @@
         <v>3174.441048251676</v>
       </c>
       <c r="Y26" t="n">
-        <v>2784.301716275865</v>
+        <v>2784.301716275864</v>
       </c>
     </row>
     <row r="27">
@@ -6296,34 +6296,34 @@
         <v>342.9541299539486</v>
       </c>
       <c r="G27" t="n">
-        <v>206.3463958216803</v>
+        <v>206.3463958216802</v>
       </c>
       <c r="H27" t="n">
         <v>113.4818523776181</v>
       </c>
       <c r="I27" t="n">
-        <v>96.27988370916805</v>
+        <v>96.27988370916803</v>
       </c>
       <c r="J27" t="n">
         <v>167.304547941494</v>
       </c>
       <c r="K27" t="n">
-        <v>366.8518364815407</v>
+        <v>628.6724211239936</v>
       </c>
       <c r="L27" t="n">
-        <v>681.490332743711</v>
+        <v>943.310917386164</v>
       </c>
       <c r="M27" t="n">
-        <v>1444.195629672487</v>
+        <v>1329.836070157271</v>
       </c>
       <c r="N27" t="n">
-        <v>1855.359598011705</v>
+        <v>1741.000038496489</v>
       </c>
       <c r="O27" t="n">
-        <v>2209.274506442037</v>
+        <v>2094.914946926821</v>
       </c>
       <c r="P27" t="n">
-        <v>2473.989355903587</v>
+        <v>2359.629796388371</v>
       </c>
       <c r="Q27" t="n">
         <v>2601.025026013057</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3469.464126684173</v>
+        <v>979.4610663178116</v>
       </c>
       <c r="C28" t="n">
-        <v>3300.527943756266</v>
+        <v>810.5248833899047</v>
       </c>
       <c r="D28" t="n">
-        <v>3300.527943756266</v>
+        <v>810.5248833899047</v>
       </c>
       <c r="E28" t="n">
-        <v>3300.527943756266</v>
+        <v>662.6117898075116</v>
       </c>
       <c r="F28" t="n">
-        <v>3300.527943756266</v>
+        <v>515.7218423096012</v>
       </c>
       <c r="G28" t="n">
-        <v>3300.527943756266</v>
+        <v>347.8139127859469</v>
       </c>
       <c r="H28" t="n">
-        <v>3152.487294659496</v>
+        <v>199.7732636891765</v>
       </c>
       <c r="I28" t="n">
-        <v>3152.487294659496</v>
+        <v>96.27988370916803</v>
       </c>
       <c r="J28" t="n">
-        <v>3183.398410542946</v>
+        <v>127.1909995926188</v>
       </c>
       <c r="K28" t="n">
-        <v>3364.031706172633</v>
+        <v>307.8242952223059</v>
       </c>
       <c r="L28" t="n">
-        <v>3650.706569314555</v>
+        <v>594.4991583642276</v>
       </c>
       <c r="M28" t="n">
-        <v>3963.354140810443</v>
+        <v>907.146729860116</v>
       </c>
       <c r="N28" t="n">
-        <v>4274.002268279694</v>
+        <v>1217.794857329368</v>
       </c>
       <c r="O28" t="n">
-        <v>4544.919798339485</v>
+        <v>1488.712387389159</v>
       </c>
       <c r="P28" t="n">
-        <v>4753.215865526314</v>
+        <v>1697.008454575987</v>
       </c>
       <c r="Q28" t="n">
-        <v>4813.994185458402</v>
+        <v>1757.786774508075</v>
       </c>
       <c r="R28" t="n">
-        <v>4714.942005712708</v>
+        <v>1658.734594762381</v>
       </c>
       <c r="S28" t="n">
-        <v>4577.222131212643</v>
+        <v>1658.734594762381</v>
       </c>
       <c r="T28" t="n">
-        <v>4354.579209761847</v>
+        <v>1658.734594762381</v>
       </c>
       <c r="U28" t="n">
-        <v>4354.579209761847</v>
+        <v>1658.734594762381</v>
       </c>
       <c r="V28" t="n">
-        <v>4099.89472155596</v>
+        <v>1609.891661189599</v>
       </c>
       <c r="W28" t="n">
-        <v>4099.89472155596</v>
+        <v>1609.891661189599</v>
       </c>
       <c r="X28" t="n">
-        <v>3871.905170657943</v>
+        <v>1381.902110291581</v>
       </c>
       <c r="Y28" t="n">
-        <v>3651.112591514413</v>
+        <v>1161.109531148051</v>
       </c>
     </row>
     <row r="29">
@@ -6439,49 +6439,49 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2397.701876211742</v>
+        <v>2397.70187621174</v>
       </c>
       <c r="C29" t="n">
-        <v>2028.739359271331</v>
+        <v>2028.739359271329</v>
       </c>
       <c r="D29" t="n">
-        <v>1670.473660664581</v>
+        <v>1670.473660664579</v>
       </c>
       <c r="E29" t="n">
-        <v>1284.685408066337</v>
+        <v>1284.685408066335</v>
       </c>
       <c r="F29" t="n">
-        <v>873.6995032767286</v>
+        <v>873.6995032767272</v>
       </c>
       <c r="G29" t="n">
-        <v>458.169833686338</v>
+        <v>458.1698336863374</v>
       </c>
       <c r="H29" t="n">
-        <v>155.9037347524499</v>
+        <v>155.90373475245</v>
       </c>
       <c r="I29" t="n">
         <v>96.27988370916803</v>
       </c>
       <c r="J29" t="n">
-        <v>247.1253245823087</v>
+        <v>414.5309736026617</v>
       </c>
       <c r="K29" t="n">
-        <v>844.8460144959276</v>
+        <v>691.3477050708276</v>
       </c>
       <c r="L29" t="n">
-        <v>1638.648011954867</v>
+        <v>1485.149702529767</v>
       </c>
       <c r="M29" t="n">
-        <v>2165.003703233623</v>
+        <v>2385.013919446188</v>
       </c>
       <c r="N29" t="n">
-        <v>3064.796666413013</v>
+        <v>3284.806882625578</v>
       </c>
       <c r="O29" t="n">
-        <v>3869.258008588201</v>
+        <v>4089.268224800767</v>
       </c>
       <c r="P29" t="n">
-        <v>4518.172769356253</v>
+        <v>4419.60226447905</v>
       </c>
       <c r="Q29" t="n">
         <v>4718.067129459338</v>
@@ -6493,22 +6493,22 @@
         <v>4693.284629101619</v>
       </c>
       <c r="T29" t="n">
-        <v>4485.305403407436</v>
+        <v>4485.305403407434</v>
       </c>
       <c r="U29" t="n">
-        <v>4231.738349126441</v>
+        <v>4231.738349126439</v>
       </c>
       <c r="V29" t="n">
-        <v>3900.67546178287</v>
+        <v>3900.675461782868</v>
       </c>
       <c r="W29" t="n">
-        <v>3547.906806512756</v>
+        <v>3547.906806512754</v>
       </c>
       <c r="X29" t="n">
-        <v>3174.441048251676</v>
+        <v>3174.441048251674</v>
       </c>
       <c r="Y29" t="n">
-        <v>2784.301716275864</v>
+        <v>2784.301716275862</v>
       </c>
     </row>
     <row r="30">
@@ -6542,25 +6542,25 @@
         <v>96.27988370916803</v>
       </c>
       <c r="J30" t="n">
-        <v>292.1346729284987</v>
+        <v>167.304547941494</v>
       </c>
       <c r="K30" t="n">
-        <v>491.6819614685454</v>
+        <v>628.6724211239936</v>
       </c>
       <c r="L30" t="n">
-        <v>806.3204577307158</v>
+        <v>943.310917386164</v>
       </c>
       <c r="M30" t="n">
-        <v>1444.195629672487</v>
+        <v>1329.836070157271</v>
       </c>
       <c r="N30" t="n">
-        <v>1855.359598011705</v>
+        <v>1741.000038496489</v>
       </c>
       <c r="O30" t="n">
-        <v>2209.274506442037</v>
+        <v>2094.914946926821</v>
       </c>
       <c r="P30" t="n">
-        <v>2473.989355903587</v>
+        <v>2359.629796388371</v>
       </c>
       <c r="Q30" t="n">
         <v>2601.025026013057</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>727.9270372410327</v>
+        <v>321.2869306325233</v>
       </c>
       <c r="C31" t="n">
-        <v>558.9908543131259</v>
+        <v>152.3507477046164</v>
       </c>
       <c r="D31" t="n">
-        <v>558.9908543131259</v>
+        <v>152.3507477046164</v>
       </c>
       <c r="E31" t="n">
-        <v>411.0777607307327</v>
+        <v>152.3507477046164</v>
       </c>
       <c r="F31" t="n">
-        <v>264.1878132328224</v>
+        <v>152.3507477046164</v>
       </c>
       <c r="G31" t="n">
-        <v>96.27988370916803</v>
+        <v>152.3507477046164</v>
       </c>
       <c r="H31" t="n">
         <v>96.27988370916803</v>
@@ -6627,16 +6627,16 @@
         <v>307.8242952223059</v>
       </c>
       <c r="L31" t="n">
-        <v>594.4991583642275</v>
+        <v>594.4991583642276</v>
       </c>
       <c r="M31" t="n">
-        <v>907.1467298601159</v>
+        <v>907.146729860116</v>
       </c>
       <c r="N31" t="n">
-        <v>1217.794857329367</v>
+        <v>1217.794857329368</v>
       </c>
       <c r="O31" t="n">
-        <v>1488.712387389158</v>
+        <v>1488.712387389159</v>
       </c>
       <c r="P31" t="n">
         <v>1697.008454575987</v>
@@ -6645,28 +6645,28 @@
         <v>1757.786774508075</v>
       </c>
       <c r="R31" t="n">
-        <v>1757.786774508075</v>
+        <v>1658.734594762381</v>
       </c>
       <c r="S31" t="n">
-        <v>1757.786774508075</v>
+        <v>1463.474500714829</v>
       </c>
       <c r="T31" t="n">
-        <v>1535.143853057278</v>
+        <v>1240.831579264033</v>
       </c>
       <c r="U31" t="n">
-        <v>1535.143853057278</v>
+        <v>951.7175255043105</v>
       </c>
       <c r="V31" t="n">
-        <v>1426.98222300625</v>
+        <v>951.7175255043105</v>
       </c>
       <c r="W31" t="n">
-        <v>1137.56505296929</v>
+        <v>951.7175255043105</v>
       </c>
       <c r="X31" t="n">
-        <v>909.5755020712725</v>
+        <v>723.7279746062932</v>
       </c>
       <c r="Y31" t="n">
-        <v>909.5755020712725</v>
+        <v>502.935395462763</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2397.70187621174</v>
+        <v>2397.701876211742</v>
       </c>
       <c r="C32" t="n">
-        <v>2028.739359271329</v>
+        <v>2028.739359271331</v>
       </c>
       <c r="D32" t="n">
-        <v>1670.473660664579</v>
+        <v>1670.47366066458</v>
       </c>
       <c r="E32" t="n">
-        <v>1284.685408066335</v>
+        <v>1284.685408066336</v>
       </c>
       <c r="F32" t="n">
-        <v>873.6995032767272</v>
+        <v>873.6995032767284</v>
       </c>
       <c r="G32" t="n">
-        <v>458.1698336863374</v>
+        <v>458.1698336863381</v>
       </c>
       <c r="H32" t="n">
         <v>155.90373475245</v>
@@ -6700,28 +6700,28 @@
         <v>96.27988370916803</v>
       </c>
       <c r="J32" t="n">
-        <v>247.1253245823087</v>
+        <v>414.5309736026617</v>
       </c>
       <c r="K32" t="n">
-        <v>844.8460144959276</v>
+        <v>691.3477050708276</v>
       </c>
       <c r="L32" t="n">
-        <v>1638.648011954867</v>
+        <v>1485.149702529767</v>
       </c>
       <c r="M32" t="n">
-        <v>2230.062958907875</v>
+        <v>2385.013919446188</v>
       </c>
       <c r="N32" t="n">
-        <v>3129.855922087265</v>
+        <v>3284.806882625578</v>
       </c>
       <c r="O32" t="n">
-        <v>3934.317264262454</v>
+        <v>4089.268224800767</v>
       </c>
       <c r="P32" t="n">
-        <v>4583.232025030505</v>
+        <v>4419.60226447905</v>
       </c>
       <c r="Q32" t="n">
-        <v>4783.12638513359</v>
+        <v>4718.067129459338</v>
       </c>
       <c r="R32" t="n">
         <v>4813.994185458401</v>
@@ -6730,22 +6730,22 @@
         <v>4693.284629101619</v>
       </c>
       <c r="T32" t="n">
-        <v>4485.305403407434</v>
+        <v>4485.305403407436</v>
       </c>
       <c r="U32" t="n">
-        <v>4231.738349126439</v>
+        <v>4231.738349126441</v>
       </c>
       <c r="V32" t="n">
-        <v>3900.675461782868</v>
+        <v>3900.67546178287</v>
       </c>
       <c r="W32" t="n">
-        <v>3547.906806512754</v>
+        <v>3547.906806512756</v>
       </c>
       <c r="X32" t="n">
-        <v>3174.441048251674</v>
+        <v>3174.441048251676</v>
       </c>
       <c r="Y32" t="n">
-        <v>2784.301716275862</v>
+        <v>2784.301716275864</v>
       </c>
     </row>
     <row r="33">
@@ -6779,25 +6779,25 @@
         <v>96.27988370916803</v>
       </c>
       <c r="J33" t="n">
-        <v>292.1346729284987</v>
+        <v>167.304547941494</v>
       </c>
       <c r="K33" t="n">
-        <v>491.6819614685454</v>
+        <v>628.6724211239936</v>
       </c>
       <c r="L33" t="n">
-        <v>1057.67047690138</v>
+        <v>943.310917386164</v>
       </c>
       <c r="M33" t="n">
-        <v>1444.195629672487</v>
+        <v>1329.836070157271</v>
       </c>
       <c r="N33" t="n">
-        <v>1855.359598011705</v>
+        <v>1741.000038496489</v>
       </c>
       <c r="O33" t="n">
-        <v>2209.274506442037</v>
+        <v>2094.914946926821</v>
       </c>
       <c r="P33" t="n">
-        <v>2473.989355903587</v>
+        <v>2359.629796388371</v>
       </c>
       <c r="Q33" t="n">
         <v>2601.025026013057</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>408.7783194733541</v>
+        <v>1014.692370673282</v>
       </c>
       <c r="C34" t="n">
-        <v>408.7783194733541</v>
+        <v>960.6415228022405</v>
       </c>
       <c r="D34" t="n">
-        <v>408.7783194733541</v>
+        <v>810.5248833899047</v>
       </c>
       <c r="E34" t="n">
-        <v>260.865225890961</v>
+        <v>662.6117898075116</v>
       </c>
       <c r="F34" t="n">
-        <v>113.9752783930507</v>
+        <v>515.7218423096012</v>
       </c>
       <c r="G34" t="n">
-        <v>96.27988370916803</v>
+        <v>347.8139127859469</v>
       </c>
       <c r="H34" t="n">
-        <v>96.27988370916803</v>
+        <v>199.7732636891765</v>
       </c>
       <c r="I34" t="n">
         <v>96.27988370916803</v>
@@ -6864,16 +6864,16 @@
         <v>307.8242952223059</v>
       </c>
       <c r="L34" t="n">
-        <v>594.4991583642275</v>
+        <v>594.4991583642276</v>
       </c>
       <c r="M34" t="n">
-        <v>907.1467298601159</v>
+        <v>907.146729860116</v>
       </c>
       <c r="N34" t="n">
-        <v>1217.794857329367</v>
+        <v>1217.794857329368</v>
       </c>
       <c r="O34" t="n">
-        <v>1488.712387389158</v>
+        <v>1488.712387389159</v>
       </c>
       <c r="P34" t="n">
         <v>1697.008454575987</v>
@@ -6885,25 +6885,25 @@
         <v>1658.734594762381</v>
       </c>
       <c r="S34" t="n">
-        <v>1658.734594762381</v>
+        <v>1463.474500714829</v>
       </c>
       <c r="T34" t="n">
-        <v>1436.091673311585</v>
+        <v>1463.474500714829</v>
       </c>
       <c r="U34" t="n">
-        <v>1146.977619551862</v>
+        <v>1463.474500714829</v>
       </c>
       <c r="V34" t="n">
-        <v>1146.977619551862</v>
+        <v>1463.474500714829</v>
       </c>
       <c r="W34" t="n">
-        <v>857.5604495149016</v>
+        <v>1463.474500714829</v>
       </c>
       <c r="X34" t="n">
-        <v>629.5708986168843</v>
+        <v>1235.484949816812</v>
       </c>
       <c r="Y34" t="n">
-        <v>408.7783194733541</v>
+        <v>1014.692370673282</v>
       </c>
     </row>
     <row r="35">
@@ -6916,7 +6916,7 @@
         <v>2397.701876211742</v>
       </c>
       <c r="C35" t="n">
-        <v>2028.73935927133</v>
+        <v>2028.739359271331</v>
       </c>
       <c r="D35" t="n">
         <v>1670.47366066458</v>
@@ -6925,10 +6925,10 @@
         <v>1284.685408066336</v>
       </c>
       <c r="F35" t="n">
-        <v>873.6995032767281</v>
+        <v>873.6995032767284</v>
       </c>
       <c r="G35" t="n">
-        <v>458.169833686338</v>
+        <v>458.1698336863381</v>
       </c>
       <c r="H35" t="n">
         <v>155.9037347524499</v>
@@ -6940,22 +6940,22 @@
         <v>414.5309736026617</v>
       </c>
       <c r="K35" t="n">
-        <v>916.3558870161665</v>
+        <v>1012.251663516281</v>
       </c>
       <c r="L35" t="n">
-        <v>1710.157884475106</v>
+        <v>1806.05366097522</v>
       </c>
       <c r="M35" t="n">
-        <v>2165.003703233622</v>
+        <v>2273.392583570084</v>
       </c>
       <c r="N35" t="n">
-        <v>3064.796666413012</v>
+        <v>3173.185546749473</v>
       </c>
       <c r="O35" t="n">
-        <v>3869.2580085882</v>
+        <v>3977.646888924663</v>
       </c>
       <c r="P35" t="n">
-        <v>4518.172769356252</v>
+        <v>4307.980928602946</v>
       </c>
       <c r="Q35" t="n">
         <v>4718.067129459337</v>
@@ -6970,13 +6970,13 @@
         <v>4485.305403407435</v>
       </c>
       <c r="U35" t="n">
-        <v>4231.73834912644</v>
+        <v>4231.738349126441</v>
       </c>
       <c r="V35" t="n">
         <v>3900.67546178287</v>
       </c>
       <c r="W35" t="n">
-        <v>3547.906806512755</v>
+        <v>3547.906806512756</v>
       </c>
       <c r="X35" t="n">
         <v>3174.441048251676</v>
@@ -7019,22 +7019,22 @@
         <v>167.304547941494</v>
       </c>
       <c r="K36" t="n">
-        <v>366.8518364815407</v>
+        <v>628.6724211239936</v>
       </c>
       <c r="L36" t="n">
-        <v>681.490332743711</v>
+        <v>943.310917386164</v>
       </c>
       <c r="M36" t="n">
-        <v>1068.015485514818</v>
+        <v>1329.836070157271</v>
       </c>
       <c r="N36" t="n">
-        <v>1479.179453854036</v>
+        <v>1741.000038496489</v>
       </c>
       <c r="O36" t="n">
-        <v>2209.274506442037</v>
+        <v>2094.914946926821</v>
       </c>
       <c r="P36" t="n">
-        <v>2473.989355903587</v>
+        <v>2359.629796388371</v>
       </c>
       <c r="Q36" t="n">
         <v>2601.025026013057</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>480.6518906371097</v>
+        <v>708.0597568141487</v>
       </c>
       <c r="C37" t="n">
-        <v>480.6518906371097</v>
+        <v>539.1235738862418</v>
       </c>
       <c r="D37" t="n">
-        <v>411.0777607307327</v>
+        <v>539.1235738862418</v>
       </c>
       <c r="E37" t="n">
-        <v>411.0777607307327</v>
+        <v>391.2104803038487</v>
       </c>
       <c r="F37" t="n">
-        <v>264.1878132328224</v>
+        <v>244.3205328059384</v>
       </c>
       <c r="G37" t="n">
-        <v>96.279883709168</v>
+        <v>244.3205328059384</v>
       </c>
       <c r="H37" t="n">
         <v>96.279883709168</v>
@@ -7104,13 +7104,13 @@
         <v>594.4991583642275</v>
       </c>
       <c r="M37" t="n">
-        <v>907.1467298601159</v>
+        <v>907.146729860116</v>
       </c>
       <c r="N37" t="n">
-        <v>1217.794857329367</v>
+        <v>1217.794857329368</v>
       </c>
       <c r="O37" t="n">
-        <v>1488.712387389158</v>
+        <v>1488.712387389159</v>
       </c>
       <c r="P37" t="n">
         <v>1697.008454575987</v>
@@ -7119,28 +7119,28 @@
         <v>1757.786774508075</v>
       </c>
       <c r="R37" t="n">
-        <v>1658.734594762381</v>
+        <v>1757.786774508075</v>
       </c>
       <c r="S37" t="n">
-        <v>1463.474500714829</v>
+        <v>1562.526680460523</v>
       </c>
       <c r="T37" t="n">
-        <v>1240.831579264032</v>
+        <v>1339.883759009727</v>
       </c>
       <c r="U37" t="n">
-        <v>951.7175255043101</v>
+        <v>1339.883759009727</v>
       </c>
       <c r="V37" t="n">
-        <v>951.7175255043101</v>
+        <v>1085.19927080384</v>
       </c>
       <c r="W37" t="n">
-        <v>662.3003554673494</v>
+        <v>795.782100766879</v>
       </c>
       <c r="X37" t="n">
-        <v>662.3003554673494</v>
+        <v>795.782100766879</v>
       </c>
       <c r="Y37" t="n">
-        <v>662.3003554673494</v>
+        <v>708.0597568141487</v>
       </c>
     </row>
     <row r="38">
@@ -7156,49 +7156,49 @@
         <v>2028.73935927133</v>
       </c>
       <c r="D38" t="n">
-        <v>1670.47366066458</v>
+        <v>1670.473660664579</v>
       </c>
       <c r="E38" t="n">
-        <v>1284.685408066336</v>
+        <v>1284.685408066335</v>
       </c>
       <c r="F38" t="n">
-        <v>873.6995032767281</v>
+        <v>873.6995032767275</v>
       </c>
       <c r="G38" t="n">
-        <v>458.1698336863378</v>
+        <v>458.1698336863371</v>
       </c>
       <c r="H38" t="n">
         <v>155.9037347524499</v>
       </c>
       <c r="I38" t="n">
-        <v>96.27988370916803</v>
+        <v>96.279883709168</v>
       </c>
       <c r="J38" t="n">
-        <v>247.1253245823087</v>
+        <v>414.5309736026617</v>
       </c>
       <c r="K38" t="n">
-        <v>844.8460144959276</v>
+        <v>691.3477050708276</v>
       </c>
       <c r="L38" t="n">
-        <v>1638.648011954867</v>
+        <v>1485.149702529767</v>
       </c>
       <c r="M38" t="n">
-        <v>2093.493830713383</v>
+        <v>2385.013919446188</v>
       </c>
       <c r="N38" t="n">
-        <v>2993.286793892773</v>
+        <v>3284.806882625578</v>
       </c>
       <c r="O38" t="n">
-        <v>3797.748136067962</v>
+        <v>4089.268224800767</v>
       </c>
       <c r="P38" t="n">
-        <v>4373.040184277199</v>
+        <v>4419.60226447905</v>
       </c>
       <c r="Q38" t="n">
-        <v>4783.12638513359</v>
+        <v>4718.067129459337</v>
       </c>
       <c r="R38" t="n">
-        <v>4813.994185458401</v>
+        <v>4813.9941854584</v>
       </c>
       <c r="S38" t="n">
         <v>4693.284629101619</v>
@@ -7229,16 +7229,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>972.1135818748975</v>
+        <v>972.1135818748972</v>
       </c>
       <c r="C39" t="n">
-        <v>797.6605525937705</v>
+        <v>797.6605525937703</v>
       </c>
       <c r="D39" t="n">
-        <v>648.7261429325192</v>
+        <v>648.726142932519</v>
       </c>
       <c r="E39" t="n">
-        <v>489.4886879270637</v>
+        <v>489.4886879270636</v>
       </c>
       <c r="F39" t="n">
         <v>342.9541299539486</v>
@@ -7250,31 +7250,31 @@
         <v>113.4818523776181</v>
       </c>
       <c r="I39" t="n">
-        <v>96.27988370916803</v>
+        <v>96.279883709168</v>
       </c>
       <c r="J39" t="n">
         <v>167.304547941494</v>
       </c>
       <c r="K39" t="n">
-        <v>366.8518364815407</v>
+        <v>628.6724211239936</v>
       </c>
       <c r="L39" t="n">
-        <v>681.490332743711</v>
+        <v>943.310917386164</v>
       </c>
       <c r="M39" t="n">
-        <v>1068.015485514818</v>
+        <v>1329.836070157271</v>
       </c>
       <c r="N39" t="n">
-        <v>1479.179453854036</v>
+        <v>1741.000038496489</v>
       </c>
       <c r="O39" t="n">
-        <v>1833.094362284368</v>
+        <v>2094.914946926821</v>
       </c>
       <c r="P39" t="n">
-        <v>2235.974377226892</v>
+        <v>2359.629796388371</v>
       </c>
       <c r="Q39" t="n">
-        <v>2570.986562194853</v>
+        <v>2601.025026013057</v>
       </c>
       <c r="R39" t="n">
         <v>2601.025026013057</v>
@@ -7289,7 +7289,7 @@
         <v>2045.330182825396</v>
       </c>
       <c r="V39" t="n">
-        <v>1810.178074593654</v>
+        <v>1810.178074593653</v>
       </c>
       <c r="W39" t="n">
         <v>1555.940717865452</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3740.865436187834</v>
+        <v>244.3205328059384</v>
       </c>
       <c r="C40" t="n">
-        <v>3571.929253259927</v>
+        <v>244.3205328059384</v>
       </c>
       <c r="D40" t="n">
-        <v>3571.929253259927</v>
+        <v>244.3205328059384</v>
       </c>
       <c r="E40" t="n">
-        <v>3571.929253259927</v>
+        <v>244.3205328059384</v>
       </c>
       <c r="F40" t="n">
-        <v>3571.929253259927</v>
+        <v>244.3205328059384</v>
       </c>
       <c r="G40" t="n">
-        <v>3404.021323736273</v>
+        <v>244.3205328059384</v>
       </c>
       <c r="H40" t="n">
-        <v>3255.980674639503</v>
+        <v>96.279883709168</v>
       </c>
       <c r="I40" t="n">
-        <v>3152.487294659495</v>
+        <v>96.279883709168</v>
       </c>
       <c r="J40" t="n">
-        <v>3183.398410542945</v>
+        <v>127.1909995926188</v>
       </c>
       <c r="K40" t="n">
-        <v>3364.031706172632</v>
+        <v>307.8242952223059</v>
       </c>
       <c r="L40" t="n">
-        <v>3650.706569314554</v>
+        <v>594.4991583642275</v>
       </c>
       <c r="M40" t="n">
-        <v>3963.354140810442</v>
+        <v>907.146729860116</v>
       </c>
       <c r="N40" t="n">
-        <v>4274.002268279693</v>
+        <v>1217.794857329368</v>
       </c>
       <c r="O40" t="n">
-        <v>4544.919798339484</v>
+        <v>1488.712387389159</v>
       </c>
       <c r="P40" t="n">
-        <v>4753.215865526313</v>
+        <v>1697.008454575987</v>
       </c>
       <c r="Q40" t="n">
-        <v>4813.994185458401</v>
+        <v>1757.786774508075</v>
       </c>
       <c r="R40" t="n">
-        <v>4714.942005712707</v>
+        <v>1757.786774508075</v>
       </c>
       <c r="S40" t="n">
-        <v>4655.366571649362</v>
+        <v>1562.526680460523</v>
       </c>
       <c r="T40" t="n">
-        <v>4432.723650198565</v>
+        <v>1339.883759009727</v>
       </c>
       <c r="U40" t="n">
-        <v>4432.723650198565</v>
+        <v>1339.883759009727</v>
       </c>
       <c r="V40" t="n">
-        <v>4432.723650198565</v>
+        <v>1085.19927080384</v>
       </c>
       <c r="W40" t="n">
-        <v>4143.306480161605</v>
+        <v>795.782100766879</v>
       </c>
       <c r="X40" t="n">
-        <v>4143.306480161605</v>
+        <v>567.7925498688617</v>
       </c>
       <c r="Y40" t="n">
-        <v>3922.513901018074</v>
+        <v>425.9689976361781</v>
       </c>
     </row>
     <row r="41">
@@ -7399,43 +7399,43 @@
         <v>1284.685408066335</v>
       </c>
       <c r="F41" t="n">
-        <v>873.6995032767272</v>
+        <v>873.6995032767284</v>
       </c>
       <c r="G41" t="n">
-        <v>458.1698336863374</v>
+        <v>458.169833686338</v>
       </c>
       <c r="H41" t="n">
         <v>155.9037347524499</v>
       </c>
       <c r="I41" t="n">
-        <v>96.27988370916803</v>
+        <v>96.279883709168</v>
       </c>
       <c r="J41" t="n">
-        <v>247.1253245823087</v>
+        <v>414.5309736026617</v>
       </c>
       <c r="K41" t="n">
-        <v>523.9420560504745</v>
+        <v>1012.251663516281</v>
       </c>
       <c r="L41" t="n">
-        <v>1317.744053509414</v>
+        <v>1806.05366097522</v>
       </c>
       <c r="M41" t="n">
-        <v>2019.87111815457</v>
+        <v>2273.392583570084</v>
       </c>
       <c r="N41" t="n">
-        <v>2919.664081333959</v>
+        <v>3173.185546749473</v>
       </c>
       <c r="O41" t="n">
-        <v>3724.125423509148</v>
+        <v>3977.646888924663</v>
       </c>
       <c r="P41" t="n">
-        <v>4373.040184277199</v>
+        <v>4307.980928602946</v>
       </c>
       <c r="Q41" t="n">
-        <v>4783.12638513359</v>
+        <v>4718.067129459337</v>
       </c>
       <c r="R41" t="n">
-        <v>4813.994185458401</v>
+        <v>4813.9941854584</v>
       </c>
       <c r="S41" t="n">
         <v>4693.284629101619</v>
@@ -7466,16 +7466,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>972.1135818748975</v>
+        <v>972.1135818748972</v>
       </c>
       <c r="C42" t="n">
-        <v>797.6605525937705</v>
+        <v>797.6605525937703</v>
       </c>
       <c r="D42" t="n">
-        <v>648.7261429325192</v>
+        <v>648.726142932519</v>
       </c>
       <c r="E42" t="n">
-        <v>489.4886879270637</v>
+        <v>489.4886879270636</v>
       </c>
       <c r="F42" t="n">
         <v>342.9541299539486</v>
@@ -7487,22 +7487,22 @@
         <v>113.4818523776181</v>
       </c>
       <c r="I42" t="n">
-        <v>96.27988370916803</v>
+        <v>96.279883709168</v>
       </c>
       <c r="J42" t="n">
-        <v>292.1346729284987</v>
+        <v>167.304547941494</v>
       </c>
       <c r="K42" t="n">
-        <v>491.6819614685454</v>
+        <v>366.8518364815407</v>
       </c>
       <c r="L42" t="n">
-        <v>1057.67047690138</v>
+        <v>681.4903327437112</v>
       </c>
       <c r="M42" t="n">
-        <v>1444.195629672487</v>
+        <v>1068.015485514818</v>
       </c>
       <c r="N42" t="n">
-        <v>1855.359598011705</v>
+        <v>1479.179453854036</v>
       </c>
       <c r="O42" t="n">
         <v>2209.274506442037</v>
@@ -7526,7 +7526,7 @@
         <v>2045.330182825396</v>
       </c>
       <c r="V42" t="n">
-        <v>1810.178074593654</v>
+        <v>1810.178074593653</v>
       </c>
       <c r="W42" t="n">
         <v>1555.940717865452</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>347.6863572715696</v>
+        <v>731.2812846698354</v>
       </c>
       <c r="C43" t="n">
-        <v>347.6863572715696</v>
+        <v>562.3451017419285</v>
       </c>
       <c r="D43" t="n">
-        <v>347.6863572715696</v>
+        <v>412.2284623295927</v>
       </c>
       <c r="E43" t="n">
-        <v>199.7732636891765</v>
+        <v>412.2284623295927</v>
       </c>
       <c r="F43" t="n">
-        <v>199.7732636891765</v>
+        <v>412.2284623295927</v>
       </c>
       <c r="G43" t="n">
-        <v>199.7732636891765</v>
+        <v>244.3205328059384</v>
       </c>
       <c r="H43" t="n">
-        <v>199.7732636891765</v>
+        <v>96.279883709168</v>
       </c>
       <c r="I43" t="n">
-        <v>96.27988370916803</v>
+        <v>96.279883709168</v>
       </c>
       <c r="J43" t="n">
         <v>127.1909995926188</v>
@@ -7578,13 +7578,13 @@
         <v>594.4991583642275</v>
       </c>
       <c r="M43" t="n">
-        <v>907.1467298601159</v>
+        <v>907.146729860116</v>
       </c>
       <c r="N43" t="n">
-        <v>1217.794857329367</v>
+        <v>1217.794857329368</v>
       </c>
       <c r="O43" t="n">
-        <v>1488.712387389158</v>
+        <v>1488.712387389159</v>
       </c>
       <c r="P43" t="n">
         <v>1697.008454575987</v>
@@ -7596,25 +7596,25 @@
         <v>1757.786774508075</v>
       </c>
       <c r="S43" t="n">
-        <v>1744.861531837001</v>
+        <v>1757.786774508075</v>
       </c>
       <c r="T43" t="n">
-        <v>1522.218610386204</v>
+        <v>1757.786774508075</v>
       </c>
       <c r="U43" t="n">
-        <v>1522.218610386204</v>
+        <v>1677.823986886453</v>
       </c>
       <c r="V43" t="n">
-        <v>1267.534122180317</v>
+        <v>1423.139498680566</v>
       </c>
       <c r="W43" t="n">
-        <v>978.1169521433568</v>
+        <v>1133.722328643605</v>
       </c>
       <c r="X43" t="n">
-        <v>750.1274012453395</v>
+        <v>1133.722328643605</v>
       </c>
       <c r="Y43" t="n">
-        <v>529.3348221018093</v>
+        <v>912.9297495000751</v>
       </c>
     </row>
     <row r="44">
@@ -7624,10 +7624,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2397.70187621174</v>
+        <v>2397.701876211741</v>
       </c>
       <c r="C44" t="n">
-        <v>2028.739359271329</v>
+        <v>2028.73935927133</v>
       </c>
       <c r="D44" t="n">
         <v>1670.473660664579</v>
@@ -7636,64 +7636,64 @@
         <v>1284.685408066335</v>
       </c>
       <c r="F44" t="n">
-        <v>873.6995032767272</v>
+        <v>873.6995032767275</v>
       </c>
       <c r="G44" t="n">
-        <v>458.1698336863374</v>
+        <v>458.1698336863371</v>
       </c>
       <c r="H44" t="n">
-        <v>155.90373475245</v>
+        <v>155.9037347524491</v>
       </c>
       <c r="I44" t="n">
-        <v>96.27988370916803</v>
+        <v>96.279883709168</v>
       </c>
       <c r="J44" t="n">
-        <v>247.1253245823087</v>
+        <v>414.5309736026617</v>
       </c>
       <c r="K44" t="n">
-        <v>523.9420560504745</v>
+        <v>691.3477050708276</v>
       </c>
       <c r="L44" t="n">
-        <v>1317.744053509414</v>
+        <v>1485.149702529767</v>
       </c>
       <c r="M44" t="n">
-        <v>2217.608270425834</v>
+        <v>2385.013919446188</v>
       </c>
       <c r="N44" t="n">
-        <v>3117.401233605224</v>
+        <v>3284.806882625578</v>
       </c>
       <c r="O44" t="n">
-        <v>3921.862575780413</v>
+        <v>4089.268224800767</v>
       </c>
       <c r="P44" t="n">
-        <v>4570.777336548465</v>
+        <v>4419.60226447905</v>
       </c>
       <c r="Q44" t="n">
-        <v>4783.12638513359</v>
+        <v>4718.067129459337</v>
       </c>
       <c r="R44" t="n">
-        <v>4813.994185458401</v>
+        <v>4813.9941854584</v>
       </c>
       <c r="S44" t="n">
         <v>4693.284629101619</v>
       </c>
       <c r="T44" t="n">
-        <v>4485.305403407434</v>
+        <v>4485.305403407435</v>
       </c>
       <c r="U44" t="n">
-        <v>4231.738349126439</v>
+        <v>4231.73834912644</v>
       </c>
       <c r="V44" t="n">
-        <v>3900.675461782868</v>
+        <v>3900.675461782869</v>
       </c>
       <c r="W44" t="n">
-        <v>3547.906806512754</v>
+        <v>3547.906806512755</v>
       </c>
       <c r="X44" t="n">
-        <v>3174.441048251674</v>
+        <v>3174.441048251675</v>
       </c>
       <c r="Y44" t="n">
-        <v>2784.301716275862</v>
+        <v>2784.301716275863</v>
       </c>
     </row>
     <row r="45">
@@ -7703,16 +7703,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>972.1135818748975</v>
+        <v>972.1135818748972</v>
       </c>
       <c r="C45" t="n">
-        <v>797.6605525937705</v>
+        <v>797.6605525937703</v>
       </c>
       <c r="D45" t="n">
-        <v>648.7261429325192</v>
+        <v>648.726142932519</v>
       </c>
       <c r="E45" t="n">
-        <v>489.4886879270637</v>
+        <v>489.4886879270636</v>
       </c>
       <c r="F45" t="n">
         <v>342.9541299539486</v>
@@ -7724,28 +7724,28 @@
         <v>113.4818523776181</v>
       </c>
       <c r="I45" t="n">
-        <v>96.27988370916803</v>
+        <v>96.279883709168</v>
       </c>
       <c r="J45" t="n">
-        <v>292.1346729284987</v>
+        <v>167.304547941494</v>
       </c>
       <c r="K45" t="n">
-        <v>535.0554657807195</v>
+        <v>628.6724211239936</v>
       </c>
       <c r="L45" t="n">
-        <v>849.6939620428899</v>
+        <v>943.310917386164</v>
       </c>
       <c r="M45" t="n">
-        <v>1236.219114813997</v>
+        <v>1329.836070157271</v>
       </c>
       <c r="N45" t="n">
-        <v>1647.383083153215</v>
+        <v>1741.000038496489</v>
       </c>
       <c r="O45" t="n">
-        <v>2001.297991583547</v>
+        <v>2094.914946926821</v>
       </c>
       <c r="P45" t="n">
-        <v>2266.012841045097</v>
+        <v>2359.629796388371</v>
       </c>
       <c r="Q45" t="n">
         <v>2601.025026013057</v>
@@ -7763,7 +7763,7 @@
         <v>2045.330182825396</v>
       </c>
       <c r="V45" t="n">
-        <v>1810.178074593654</v>
+        <v>1810.178074593653</v>
       </c>
       <c r="W45" t="n">
         <v>1555.940717865452</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>609.0901227666563</v>
+        <v>96.279883709168</v>
       </c>
       <c r="C46" t="n">
-        <v>440.1539398387495</v>
+        <v>96.279883709168</v>
       </c>
       <c r="D46" t="n">
-        <v>440.1539398387495</v>
+        <v>96.279883709168</v>
       </c>
       <c r="E46" t="n">
-        <v>440.1539398387495</v>
+        <v>96.279883709168</v>
       </c>
       <c r="F46" t="n">
-        <v>440.1539398387495</v>
+        <v>96.279883709168</v>
       </c>
       <c r="G46" t="n">
-        <v>272.2460103150951</v>
+        <v>96.279883709168</v>
       </c>
       <c r="H46" t="n">
-        <v>124.2053612183247</v>
+        <v>96.279883709168</v>
       </c>
       <c r="I46" t="n">
-        <v>96.27988370916803</v>
+        <v>96.279883709168</v>
       </c>
       <c r="J46" t="n">
         <v>127.1909995926188</v>
@@ -7815,13 +7815,13 @@
         <v>594.4991583642275</v>
       </c>
       <c r="M46" t="n">
-        <v>907.1467298601159</v>
+        <v>907.146729860116</v>
       </c>
       <c r="N46" t="n">
-        <v>1217.794857329367</v>
+        <v>1217.794857329368</v>
       </c>
       <c r="O46" t="n">
-        <v>1488.712387389158</v>
+        <v>1488.712387389159</v>
       </c>
       <c r="P46" t="n">
         <v>1697.008454575987</v>
@@ -7836,22 +7836,22 @@
         <v>1562.526680460523</v>
       </c>
       <c r="T46" t="n">
-        <v>1562.526680460523</v>
+        <v>1339.883759009727</v>
       </c>
       <c r="U46" t="n">
-        <v>1273.4126267008</v>
+        <v>1050.769705250004</v>
       </c>
       <c r="V46" t="n">
-        <v>1018.728138494913</v>
+        <v>796.0852170441175</v>
       </c>
       <c r="W46" t="n">
-        <v>1018.728138494913</v>
+        <v>545.0620137507154</v>
       </c>
       <c r="X46" t="n">
-        <v>790.7385875968961</v>
+        <v>317.0724628526981</v>
       </c>
       <c r="Y46" t="n">
-        <v>790.7385875968961</v>
+        <v>96.279883709168</v>
       </c>
     </row>
   </sheetData>
@@ -8066,10 +8066,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>368.5691090902119</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N3" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
         <v>383.6105333221035</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8297,22 +8297,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>382.1386950879875</v>
       </c>
       <c r="N6" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>247.3552705420797</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
         <v>139.9817740860215</v>
@@ -8534,22 +8534,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>383.1483227996774</v>
+        <v>382.1386950879875</v>
       </c>
       <c r="N9" t="n">
-        <v>301.2485028631349</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
         <v>139.9817740860215</v>
@@ -8692,7 +8692,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>14.96600120407493</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
         <v>417.6612145504504</v>
@@ -8701,7 +8701,7 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>437.3469244119842</v>
+        <v>128.1675130448933</v>
       </c>
       <c r="O11" t="n">
         <v>380.8001812627454</v>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8780,13 +8780,13 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>169.9026558577565</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>43.81162051734708</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -8926,19 +8926,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>265.4118092745861</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>128.1675130448933</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
@@ -9005,16 +9005,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>169.9026558577564</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>43.81162051734708</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -9166,16 +9166,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>227.2809918639798</v>
+        <v>128.1675130448934</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>380.8001812627454</v>
@@ -9184,7 +9184,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9242,10 +9242,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>169.9026558577564</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9260,7 +9260,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>43.81162051734708</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9409,19 +9409,19 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>224.9342874642973</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>437.3469244119842</v>
+        <v>128.1675130448933</v>
       </c>
       <c r="O20" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9482,13 +9482,13 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>349.6380609489547</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -9500,10 +9500,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>115.5147065810267</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>15.17978716666983</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
@@ -9646,10 +9646,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>128.1675130448934</v>
       </c>
       <c r="N23" t="n">
-        <v>125.7820052570226</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>380.8001812627454</v>
@@ -9658,10 +9658,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9728,16 +9728,16 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>169.9026558577565</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>61.5171749536679</v>
       </c>
       <c r="R24" t="n">
         <v>15.17978716666983</v>
@@ -9877,13 +9877,13 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>268.6627817147029</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>137.9486143378717</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -9892,13 +9892,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9956,13 +9956,13 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>379.9799435936057</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -9974,7 +9974,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>115.5147065810267</v>
       </c>
       <c r="R27" t="n">
         <v>15.17978716666983</v>
@@ -10111,16 +10111,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>72.23219446488883</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10129,10 +10129,10 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>99.56616654262828</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10190,16 +10190,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>253.8889082531967</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -10211,7 +10211,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>115.5147065810267</v>
       </c>
       <c r="R30" t="n">
         <v>15.17978716666983</v>
@@ -10348,16 +10348,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>137.9486143378708</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10366,13 +10366,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>99.56616654262828</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10427,13 +10427,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>253.8889082531966</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10448,7 +10448,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>115.5147065810267</v>
       </c>
       <c r="R33" t="n">
         <v>15.17978716666983</v>
@@ -10588,13 +10588,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>227.2809918639788</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>12.61929680439101</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10603,10 +10603,10 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10667,7 +10667,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10679,13 +10679,13 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>379.9799435936055</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>115.5147065810267</v>
       </c>
       <c r="R36" t="n">
         <v>15.17978716666983</v>
@@ -10822,16 +10822,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10840,13 +10840,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>247.4323318494478</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>99.56616654262737</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10904,7 +10904,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>139.5607732131056</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>115.5147065810267</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>15.17978716666983</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,16 +11059,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>249.7790362491307</v>
+        <v>12.61929680439101</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11077,13 +11077,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,13 +11138,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>253.8889082531966</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11153,7 +11153,7 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>379.9799435936052</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -11314,13 +11314,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>12.58049341620182</v>
+        <v>99.56616654262737</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11375,10 +11375,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>43.81162051734756</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11396,7 +11396,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>115.5147065810267</v>
       </c>
       <c r="R45" t="n">
         <v>15.17978716666983</v>
@@ -23418,16 +23418,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>145.4073010607596</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>146.5602426058027</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>102.4584461802083</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>98.06165794823693</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>193.3074931070767</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>220.4164922362883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.222913222125</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>192.3642826010741</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23655,13 +23655,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>98.06165794823693</v>
       </c>
       <c r="S16" t="n">
-        <v>152.2417941624441</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>220.4164922362883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>38.01002707612301</v>
       </c>
     </row>
     <row r="17">
@@ -23889,13 +23889,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>77.18284332820627</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23907,10 +23907,10 @@
         <v>166.2288502284178</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>146.5602426058027</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>102.4584461802083</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>98.06165794823693</v>
+        <v>95.48717297000898</v>
       </c>
       <c r="S19" t="n">
-        <v>193.3074931070767</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>220.4164922362883</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23952,10 +23952,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24126,16 +24126,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24144,10 +24144,10 @@
         <v>166.2288502284178</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>146.5602426058027</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>102.4584461802083</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>98.06165794823693</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>193.3074931070767</v>
       </c>
       <c r="T22" t="n">
-        <v>167.9071557495248</v>
+        <v>24.53451415098368</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24189,10 +24189,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24363,25 +24363,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>160.9747910262141</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.2288502284178</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>146.5602426058027</v>
       </c>
       <c r="I25" t="n">
         <v>102.4584461802083</v>
@@ -24414,10 +24414,10 @@
         <v>98.06165794823693</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>38.01002707612321</v>
       </c>
       <c r="T25" t="n">
-        <v>220.4164922362883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24429,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24609,19 +24609,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.2288502284178</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>102.4584461802083</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,16 +24651,16 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>56.96481735201223</v>
+        <v>193.3074931070767</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>220.4164922362883</v>
       </c>
       <c r="U28" t="n">
         <v>286.222913222125</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>203.783139086773</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -24846,16 +24846,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.2288502284178</v>
       </c>
       <c r="H31" t="n">
-        <v>146.5602426058027</v>
+        <v>91.05008725030879</v>
       </c>
       <c r="I31" t="n">
         <v>102.4584461802083</v>
@@ -24885,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>98.06165794823693</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>193.3074931070767</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.222913222125</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>145.0576295733104</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25077,10 +25077,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>113.736481706297</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25089,13 +25089,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>148.710409491374</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>146.5602426058027</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>102.4584461802083</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,19 +25125,19 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>193.3074931070767</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>220.4164922362883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.222913222125</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25311,25 +25311,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>79.7370844108992</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.2288502284178</v>
       </c>
       <c r="H37" t="n">
-        <v>146.5602426058027</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>102.4584461802083</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>98.06165794823693</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25368,10 +25368,10 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.222913222125</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>131.7395328388918</v>
       </c>
     </row>
     <row r="38">
@@ -25551,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25563,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.2288502284178</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>102.4584461802083</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>98.06165794823693</v>
       </c>
       <c r="S40" t="n">
-        <v>134.3278133843644</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25608,16 +25608,16 @@
         <v>286.222913222125</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>78.17933664173805</v>
       </c>
     </row>
     <row r="41">
@@ -25788,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.2288502284178</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>146.5602426058027</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>102.4584461802083</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,13 +25836,13 @@
         <v>98.06165794823693</v>
       </c>
       <c r="S43" t="n">
-        <v>180.5115028627133</v>
+        <v>193.3074931070767</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>220.4164922362883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.222913222125</v>
+        <v>207.0597534767188</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26022,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26037,13 +26037,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.2288502284178</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>146.5602426058027</v>
       </c>
       <c r="I46" t="n">
-        <v>74.81222344614325</v>
+        <v>102.4584461802083</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26076,7 +26076,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>220.4164922362883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26085,13 +26085,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>38.01002707612298</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>711042.6001741292</v>
+        <v>711042.6001741294</v>
       </c>
     </row>
   </sheetData>
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>738937.5928778552</v>
+        <v>738937.5928778551</v>
       </c>
       <c r="C2" t="n">
         <v>738937.5928778549</v>
       </c>
       <c r="D2" t="n">
-        <v>738937.5928778549</v>
+        <v>738937.5928778548</v>
       </c>
       <c r="E2" t="n">
         <v>710018.0330833021</v>
@@ -26328,34 +26328,34 @@
         <v>710018.0330833022</v>
       </c>
       <c r="G2" t="n">
+        <v>710018.033083302</v>
+      </c>
+      <c r="H2" t="n">
+        <v>710018.0330833027</v>
+      </c>
+      <c r="I2" t="n">
+        <v>710018.033083302</v>
+      </c>
+      <c r="J2" t="n">
         <v>710018.0330833022</v>
       </c>
-      <c r="H2" t="n">
+      <c r="K2" t="n">
+        <v>710018.0330833024</v>
+      </c>
+      <c r="L2" t="n">
         <v>710018.0330833022</v>
       </c>
-      <c r="I2" t="n">
+      <c r="M2" t="n">
+        <v>710018.0330833022</v>
+      </c>
+      <c r="N2" t="n">
+        <v>710018.0330833022</v>
+      </c>
+      <c r="O2" t="n">
         <v>710018.0330833021</v>
       </c>
-      <c r="J2" t="n">
-        <v>710018.033083302</v>
-      </c>
-      <c r="K2" t="n">
-        <v>710018.0330833021</v>
-      </c>
-      <c r="L2" t="n">
-        <v>710018.0330833021</v>
-      </c>
-      <c r="M2" t="n">
-        <v>710018.0330833023</v>
-      </c>
-      <c r="N2" t="n">
-        <v>710018.0330833019</v>
-      </c>
-      <c r="O2" t="n">
-        <v>710018.033083302</v>
-      </c>
       <c r="P2" t="n">
-        <v>710018.0330833021</v>
+        <v>710018.0330833022</v>
       </c>
     </row>
     <row r="3">
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910629</v>
+        <v>63059.94259910623</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26426,40 +26426,40 @@
         <v>346065.6887052709</v>
       </c>
       <c r="E4" t="n">
+        <v>41260.32764267486</v>
+      </c>
+      <c r="F4" t="n">
+        <v>41260.32764267486</v>
+      </c>
+      <c r="G4" t="n">
+        <v>41260.32764267486</v>
+      </c>
+      <c r="H4" t="n">
+        <v>41260.32764267487</v>
+      </c>
+      <c r="I4" t="n">
+        <v>41260.32764267486</v>
+      </c>
+      <c r="J4" t="n">
+        <v>41260.32764267488</v>
+      </c>
+      <c r="K4" t="n">
+        <v>41260.32764267486</v>
+      </c>
+      <c r="L4" t="n">
+        <v>41260.32764267486</v>
+      </c>
+      <c r="M4" t="n">
+        <v>41260.32764267486</v>
+      </c>
+      <c r="N4" t="n">
+        <v>41260.32764267485</v>
+      </c>
+      <c r="O4" t="n">
         <v>41260.32764267489</v>
       </c>
-      <c r="F4" t="n">
+      <c r="P4" t="n">
         <v>41260.32764267489</v>
-      </c>
-      <c r="G4" t="n">
-        <v>41260.32764267489</v>
-      </c>
-      <c r="H4" t="n">
-        <v>41260.32764267489</v>
-      </c>
-      <c r="I4" t="n">
-        <v>41260.32764267488</v>
-      </c>
-      <c r="J4" t="n">
-        <v>41260.32764267491</v>
-      </c>
-      <c r="K4" t="n">
-        <v>41260.32764267489</v>
-      </c>
-      <c r="L4" t="n">
-        <v>41260.32764267488</v>
-      </c>
-      <c r="M4" t="n">
-        <v>41260.32764267487</v>
-      </c>
-      <c r="N4" t="n">
-        <v>41260.32764267486</v>
-      </c>
-      <c r="O4" t="n">
-        <v>41260.32764267488</v>
-      </c>
-      <c r="P4" t="n">
-        <v>41260.32764267486</v>
       </c>
     </row>
     <row r="5">
@@ -26493,7 +26493,7 @@
         <v>94475.25086559012</v>
       </c>
       <c r="J5" t="n">
-        <v>94475.25086559013</v>
+        <v>94475.25086559012</v>
       </c>
       <c r="K5" t="n">
         <v>94475.25086559012</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>263821.2038772749</v>
+        <v>263821.2038772748</v>
       </c>
       <c r="C6" t="n">
         <v>344590.6354088224</v>
       </c>
       <c r="D6" t="n">
-        <v>344590.6354088224</v>
+        <v>344590.6354088223</v>
       </c>
       <c r="E6" t="n">
-        <v>-498164.0754859907</v>
+        <v>-498967.3965913951</v>
       </c>
       <c r="F6" t="n">
-        <v>574282.4545750371</v>
+        <v>573479.1334696328</v>
       </c>
       <c r="G6" t="n">
-        <v>574282.4545750371</v>
+        <v>573479.1334696326</v>
       </c>
       <c r="H6" t="n">
-        <v>574282.4545750371</v>
+        <v>573479.1334696333</v>
       </c>
       <c r="I6" t="n">
-        <v>574282.4545750371</v>
+        <v>573479.1334696326</v>
       </c>
       <c r="J6" t="n">
-        <v>511222.5119759306</v>
+        <v>510419.1908705267</v>
       </c>
       <c r="K6" t="n">
-        <v>574282.4545750371</v>
+        <v>573479.1334696331</v>
       </c>
       <c r="L6" t="n">
-        <v>574282.4545750371</v>
+        <v>573479.1334696328</v>
       </c>
       <c r="M6" t="n">
-        <v>334427.5276722616</v>
+        <v>333624.2065668573</v>
       </c>
       <c r="N6" t="n">
-        <v>574282.4545750369</v>
+        <v>573479.1334696331</v>
       </c>
       <c r="O6" t="n">
-        <v>574282.4545750369</v>
+        <v>573479.1334696328</v>
       </c>
       <c r="P6" t="n">
-        <v>574282.4545750371</v>
+        <v>573479.1334696328</v>
       </c>
     </row>
   </sheetData>
@@ -26724,7 +26724,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>3.250528837155401e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26746,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>977.1806993863501</v>
+        <v>977.1806993863502</v>
       </c>
       <c r="F3" t="n">
-        <v>977.1806993863501</v>
+        <v>977.1806993863502</v>
       </c>
       <c r="G3" t="n">
-        <v>977.1806993863501</v>
+        <v>977.1806993863502</v>
       </c>
       <c r="H3" t="n">
-        <v>977.1806993863501</v>
+        <v>977.1806993863502</v>
       </c>
       <c r="I3" t="n">
-        <v>977.1806993863501</v>
+        <v>977.1806993863502</v>
       </c>
       <c r="J3" t="n">
-        <v>977.1806993863501</v>
+        <v>977.1806993863502</v>
       </c>
       <c r="K3" t="n">
-        <v>977.1806993863501</v>
+        <v>977.1806993863502</v>
       </c>
       <c r="L3" t="n">
-        <v>977.1806993863501</v>
+        <v>977.1806993863502</v>
       </c>
       <c r="M3" t="n">
-        <v>977.1806993863501</v>
+        <v>977.1806993863502</v>
       </c>
       <c r="N3" t="n">
-        <v>977.1806993863501</v>
+        <v>977.1806993863502</v>
       </c>
       <c r="O3" t="n">
-        <v>977.1806993863501</v>
+        <v>977.1806993863502</v>
       </c>
       <c r="P3" t="n">
-        <v>977.1806993863501</v>
+        <v>977.1806993863502</v>
       </c>
     </row>
     <row r="4">
@@ -26813,7 +26813,7 @@
         <v>1203.4985463646</v>
       </c>
       <c r="J4" t="n">
-        <v>1203.498546364601</v>
+        <v>1203.4985463646</v>
       </c>
       <c r="K4" t="n">
         <v>1203.4985463646</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>977.1806993863501</v>
+        <v>977.1806993863502</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776593</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>962.4842574869413</v>
+        <v>962.484257486941</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,10 +27381,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27396,13 +27396,13 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>131.4497604156439</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27423,13 +27423,13 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27438,7 +27438,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>86.73796959247585</v>
+        <v>109.6729860477553</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27460,7 +27460,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27469,16 +27469,16 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>60.50207587874962</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27511,7 +27511,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>169.7195326326704</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
@@ -27523,10 +27523,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27551,7 +27551,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309074</v>
       </c>
       <c r="H4" t="n">
         <v>162.2271725074396</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>85.39768576672677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27624,7 +27624,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27633,13 +27633,13 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27660,7 +27660,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>149.8691179411497</v>
@@ -27675,16 +27675,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>137.6456560835393</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y5" t="n">
-        <v>145.2236497783945</v>
+        <v>218.0713248386154</v>
       </c>
     </row>
     <row r="6">
@@ -27694,7 +27694,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>25.93834424030175</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -27703,7 +27703,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -27715,7 +27715,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,7 +27742,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>50.84673021034784</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
@@ -27754,7 +27754,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>10.68069428326055</v>
@@ -27763,7 +27763,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27782,7 +27782,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120115</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27797,10 +27797,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27815,7 +27815,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
         <v>86.16204325169439</v>
@@ -27824,7 +27824,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
-        <v>209.1797431292663</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
         <v>227.9455894282815</v>
@@ -27855,10 +27855,10 @@
         <v>141.7195527858215</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>186.5164278032447</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27915,10 +27915,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>201.5644868610308</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>145.2236497783945</v>
@@ -27934,10 +27934,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
@@ -27955,7 +27955,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27979,28 +27979,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>82.77242830881278</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>176.6302781386796</v>
       </c>
     </row>
     <row r="10">
@@ -28010,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>46.64501259656927</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>59.05078607424915</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28037,7 +28037,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28052,7 +28052,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>86.16204325169439</v>
@@ -30471,7 +30471,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>9.094947017729281e-13</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -30717,7 +30717,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>8.100187187665142e-13</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -31767,16 +31767,16 @@
         <v>499.7027111138349</v>
       </c>
       <c r="L11" t="n">
-        <v>619.9253998730109</v>
+        <v>619.925399873011</v>
       </c>
       <c r="M11" t="n">
-        <v>689.786454195471</v>
+        <v>689.7864541954712</v>
       </c>
       <c r="N11" t="n">
-        <v>700.9479201738891</v>
+        <v>700.9479201738892</v>
       </c>
       <c r="O11" t="n">
-        <v>661.8852444773141</v>
+        <v>661.8852444773142</v>
       </c>
       <c r="P11" t="n">
         <v>564.9037429050508</v>
@@ -31788,10 +31788,10 @@
         <v>246.7651341018204</v>
       </c>
       <c r="S11" t="n">
-        <v>89.51760879303099</v>
+        <v>89.517608793031</v>
       </c>
       <c r="T11" t="n">
-        <v>17.19641612688943</v>
+        <v>17.19641612688944</v>
       </c>
       <c r="U11" t="n">
         <v>0.3142691696518912</v>
@@ -31837,28 +31837,28 @@
         <v>20.29954622687494</v>
       </c>
       <c r="I12" t="n">
-        <v>72.36668386964952</v>
+        <v>72.36668386964953</v>
       </c>
       <c r="J12" t="n">
-        <v>198.5797117498242</v>
+        <v>198.5797117498243</v>
       </c>
       <c r="K12" t="n">
-        <v>339.4043566915778</v>
+        <v>339.4043566915779</v>
       </c>
       <c r="L12" t="n">
-        <v>456.3710426709553</v>
+        <v>456.3710426709554</v>
       </c>
       <c r="M12" t="n">
-        <v>532.5634811655607</v>
+        <v>532.5634811655608</v>
       </c>
       <c r="N12" t="n">
         <v>546.6588518199168</v>
       </c>
       <c r="O12" t="n">
-        <v>500.0860509397295</v>
+        <v>500.0860509397296</v>
       </c>
       <c r="P12" t="n">
-        <v>401.3631442441784</v>
+        <v>401.3631442441785</v>
       </c>
       <c r="Q12" t="n">
         <v>268.300632782456</v>
@@ -31873,7 +31873,7 @@
         <v>8.471972289962787</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1382802876490118</v>
+        <v>0.1382802876490119</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31916,7 +31916,7 @@
         <v>15.6669299016369</v>
       </c>
       <c r="I13" t="n">
-        <v>52.99202874704994</v>
+        <v>52.99202874704995</v>
       </c>
       <c r="J13" t="n">
         <v>124.5825294938958</v>
@@ -31925,7 +31925,7 @@
         <v>204.7273661993041</v>
       </c>
       <c r="L13" t="n">
-        <v>261.9805435699077</v>
+        <v>261.9805435699078</v>
       </c>
       <c r="M13" t="n">
         <v>276.2217508117841</v>
@@ -31934,13 +31934,13 @@
         <v>269.6538149634499</v>
       </c>
       <c r="O13" t="n">
-        <v>249.0689428534258</v>
+        <v>249.0689428534259</v>
       </c>
       <c r="P13" t="n">
         <v>213.1215086005901</v>
       </c>
       <c r="Q13" t="n">
-        <v>147.5542856073388</v>
+        <v>147.5542856073389</v>
       </c>
       <c r="R13" t="n">
         <v>79.23173342893256</v>
@@ -31949,7 +31949,7 @@
         <v>30.70910492989561</v>
       </c>
       <c r="T13" t="n">
-        <v>7.529097191993186</v>
+        <v>7.529097191993187</v>
       </c>
       <c r="U13" t="n">
         <v>0.0961161343658706</v>
@@ -32004,16 +32004,16 @@
         <v>499.7027111138349</v>
       </c>
       <c r="L14" t="n">
-        <v>619.9253998730109</v>
+        <v>619.925399873011</v>
       </c>
       <c r="M14" t="n">
-        <v>689.786454195471</v>
+        <v>689.7864541954712</v>
       </c>
       <c r="N14" t="n">
-        <v>700.9479201738891</v>
+        <v>700.9479201738892</v>
       </c>
       <c r="O14" t="n">
-        <v>661.8852444773141</v>
+        <v>661.8852444773142</v>
       </c>
       <c r="P14" t="n">
         <v>564.9037429050508</v>
@@ -32025,10 +32025,10 @@
         <v>246.7651341018204</v>
       </c>
       <c r="S14" t="n">
-        <v>89.51760879303099</v>
+        <v>89.517608793031</v>
       </c>
       <c r="T14" t="n">
-        <v>17.19641612688943</v>
+        <v>17.19641612688944</v>
       </c>
       <c r="U14" t="n">
         <v>0.3142691696518912</v>
@@ -32074,28 +32074,28 @@
         <v>20.29954622687494</v>
       </c>
       <c r="I15" t="n">
-        <v>72.36668386964952</v>
+        <v>72.36668386964953</v>
       </c>
       <c r="J15" t="n">
-        <v>198.5797117498242</v>
+        <v>198.5797117498243</v>
       </c>
       <c r="K15" t="n">
-        <v>339.4043566915778</v>
+        <v>339.4043566915779</v>
       </c>
       <c r="L15" t="n">
-        <v>456.3710426709553</v>
+        <v>456.3710426709554</v>
       </c>
       <c r="M15" t="n">
-        <v>532.5634811655607</v>
+        <v>532.5634811655608</v>
       </c>
       <c r="N15" t="n">
         <v>546.6588518199168</v>
       </c>
       <c r="O15" t="n">
-        <v>500.0860509397295</v>
+        <v>500.0860509397296</v>
       </c>
       <c r="P15" t="n">
-        <v>401.3631442441784</v>
+        <v>401.3631442441785</v>
       </c>
       <c r="Q15" t="n">
         <v>268.300632782456</v>
@@ -32110,7 +32110,7 @@
         <v>8.471972289962787</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1382802876490118</v>
+        <v>0.1382802876490119</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32153,7 +32153,7 @@
         <v>15.6669299016369</v>
       </c>
       <c r="I16" t="n">
-        <v>52.99202874704994</v>
+        <v>52.99202874704995</v>
       </c>
       <c r="J16" t="n">
         <v>124.5825294938958</v>
@@ -32162,7 +32162,7 @@
         <v>204.7273661993041</v>
       </c>
       <c r="L16" t="n">
-        <v>261.9805435699077</v>
+        <v>261.9805435699078</v>
       </c>
       <c r="M16" t="n">
         <v>276.2217508117841</v>
@@ -32171,13 +32171,13 @@
         <v>269.6538149634499</v>
       </c>
       <c r="O16" t="n">
-        <v>249.0689428534258</v>
+        <v>249.0689428534259</v>
       </c>
       <c r="P16" t="n">
         <v>213.1215086005901</v>
       </c>
       <c r="Q16" t="n">
-        <v>147.5542856073388</v>
+        <v>147.5542856073389</v>
       </c>
       <c r="R16" t="n">
         <v>79.23173342893256</v>
@@ -32186,7 +32186,7 @@
         <v>30.70910492989561</v>
       </c>
       <c r="T16" t="n">
-        <v>7.529097191993186</v>
+        <v>7.529097191993187</v>
       </c>
       <c r="U16" t="n">
         <v>0.0961161343658706</v>
@@ -32241,16 +32241,16 @@
         <v>499.7027111138349</v>
       </c>
       <c r="L17" t="n">
-        <v>619.9253998730109</v>
+        <v>619.925399873011</v>
       </c>
       <c r="M17" t="n">
-        <v>689.786454195471</v>
+        <v>689.7864541954712</v>
       </c>
       <c r="N17" t="n">
-        <v>700.9479201738891</v>
+        <v>700.9479201738892</v>
       </c>
       <c r="O17" t="n">
-        <v>661.8852444773141</v>
+        <v>661.8852444773142</v>
       </c>
       <c r="P17" t="n">
         <v>564.9037429050508</v>
@@ -32262,10 +32262,10 @@
         <v>246.7651341018204</v>
       </c>
       <c r="S17" t="n">
-        <v>89.51760879303099</v>
+        <v>89.517608793031</v>
       </c>
       <c r="T17" t="n">
-        <v>17.19641612688943</v>
+        <v>17.19641612688944</v>
       </c>
       <c r="U17" t="n">
         <v>0.3142691696518912</v>
@@ -32311,28 +32311,28 @@
         <v>20.29954622687494</v>
       </c>
       <c r="I18" t="n">
-        <v>72.36668386964952</v>
+        <v>72.36668386964953</v>
       </c>
       <c r="J18" t="n">
-        <v>198.5797117498242</v>
+        <v>198.5797117498243</v>
       </c>
       <c r="K18" t="n">
-        <v>339.4043566915778</v>
+        <v>339.4043566915779</v>
       </c>
       <c r="L18" t="n">
-        <v>456.3710426709553</v>
+        <v>456.3710426709554</v>
       </c>
       <c r="M18" t="n">
-        <v>532.5634811655607</v>
+        <v>532.5634811655608</v>
       </c>
       <c r="N18" t="n">
         <v>546.6588518199168</v>
       </c>
       <c r="O18" t="n">
-        <v>500.0860509397295</v>
+        <v>500.0860509397296</v>
       </c>
       <c r="P18" t="n">
-        <v>401.3631442441784</v>
+        <v>401.3631442441785</v>
       </c>
       <c r="Q18" t="n">
         <v>268.300632782456</v>
@@ -32347,7 +32347,7 @@
         <v>8.471972289962787</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1382802876490118</v>
+        <v>0.1382802876490119</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32390,7 +32390,7 @@
         <v>15.6669299016369</v>
       </c>
       <c r="I19" t="n">
-        <v>52.99202874704994</v>
+        <v>52.99202874704995</v>
       </c>
       <c r="J19" t="n">
         <v>124.5825294938958</v>
@@ -32399,7 +32399,7 @@
         <v>204.7273661993041</v>
       </c>
       <c r="L19" t="n">
-        <v>261.9805435699077</v>
+        <v>261.9805435699078</v>
       </c>
       <c r="M19" t="n">
         <v>276.2217508117841</v>
@@ -32408,13 +32408,13 @@
         <v>269.6538149634499</v>
       </c>
       <c r="O19" t="n">
-        <v>249.0689428534258</v>
+        <v>249.0689428534259</v>
       </c>
       <c r="P19" t="n">
         <v>213.1215086005901</v>
       </c>
       <c r="Q19" t="n">
-        <v>147.5542856073388</v>
+        <v>147.5542856073389</v>
       </c>
       <c r="R19" t="n">
         <v>79.23173342893256</v>
@@ -32423,7 +32423,7 @@
         <v>30.70910492989561</v>
       </c>
       <c r="T19" t="n">
-        <v>7.529097191993186</v>
+        <v>7.529097191993187</v>
       </c>
       <c r="U19" t="n">
         <v>0.0961161343658706</v>
@@ -32478,16 +32478,16 @@
         <v>499.7027111138349</v>
       </c>
       <c r="L20" t="n">
-        <v>619.9253998730109</v>
+        <v>619.925399873011</v>
       </c>
       <c r="M20" t="n">
-        <v>689.786454195471</v>
+        <v>689.7864541954712</v>
       </c>
       <c r="N20" t="n">
-        <v>700.9479201738891</v>
+        <v>700.9479201738892</v>
       </c>
       <c r="O20" t="n">
-        <v>661.8852444773141</v>
+        <v>661.8852444773142</v>
       </c>
       <c r="P20" t="n">
         <v>564.9037429050508</v>
@@ -32499,10 +32499,10 @@
         <v>246.7651341018204</v>
       </c>
       <c r="S20" t="n">
-        <v>89.51760879303099</v>
+        <v>89.517608793031</v>
       </c>
       <c r="T20" t="n">
-        <v>17.19641612688943</v>
+        <v>17.19641612688944</v>
       </c>
       <c r="U20" t="n">
         <v>0.3142691696518912</v>
@@ -32548,28 +32548,28 @@
         <v>20.29954622687494</v>
       </c>
       <c r="I21" t="n">
-        <v>72.36668386964952</v>
+        <v>72.36668386964953</v>
       </c>
       <c r="J21" t="n">
-        <v>198.5797117498242</v>
+        <v>198.5797117498243</v>
       </c>
       <c r="K21" t="n">
-        <v>339.4043566915778</v>
+        <v>339.4043566915779</v>
       </c>
       <c r="L21" t="n">
-        <v>456.3710426709553</v>
+        <v>456.3710426709554</v>
       </c>
       <c r="M21" t="n">
-        <v>532.5634811655607</v>
+        <v>532.5634811655608</v>
       </c>
       <c r="N21" t="n">
         <v>546.6588518199168</v>
       </c>
       <c r="O21" t="n">
-        <v>500.0860509397295</v>
+        <v>500.0860509397296</v>
       </c>
       <c r="P21" t="n">
-        <v>401.3631442441784</v>
+        <v>401.3631442441785</v>
       </c>
       <c r="Q21" t="n">
         <v>268.300632782456</v>
@@ -32584,7 +32584,7 @@
         <v>8.471972289962787</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1382802876490118</v>
+        <v>0.1382802876490119</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32627,7 +32627,7 @@
         <v>15.6669299016369</v>
       </c>
       <c r="I22" t="n">
-        <v>52.99202874704994</v>
+        <v>52.99202874704995</v>
       </c>
       <c r="J22" t="n">
         <v>124.5825294938958</v>
@@ -32636,7 +32636,7 @@
         <v>204.7273661993041</v>
       </c>
       <c r="L22" t="n">
-        <v>261.9805435699077</v>
+        <v>261.9805435699078</v>
       </c>
       <c r="M22" t="n">
         <v>276.2217508117841</v>
@@ -32645,13 +32645,13 @@
         <v>269.6538149634499</v>
       </c>
       <c r="O22" t="n">
-        <v>249.0689428534258</v>
+        <v>249.0689428534259</v>
       </c>
       <c r="P22" t="n">
         <v>213.1215086005901</v>
       </c>
       <c r="Q22" t="n">
-        <v>147.5542856073388</v>
+        <v>147.5542856073389</v>
       </c>
       <c r="R22" t="n">
         <v>79.23173342893256</v>
@@ -32660,7 +32660,7 @@
         <v>30.70910492989561</v>
       </c>
       <c r="T22" t="n">
-        <v>7.529097191993186</v>
+        <v>7.529097191993187</v>
       </c>
       <c r="U22" t="n">
         <v>0.0961161343658706</v>
@@ -32715,16 +32715,16 @@
         <v>499.7027111138349</v>
       </c>
       <c r="L23" t="n">
-        <v>619.9253998730109</v>
+        <v>619.925399873011</v>
       </c>
       <c r="M23" t="n">
-        <v>689.786454195471</v>
+        <v>689.7864541954712</v>
       </c>
       <c r="N23" t="n">
-        <v>700.9479201738891</v>
+        <v>700.9479201738892</v>
       </c>
       <c r="O23" t="n">
-        <v>661.8852444773141</v>
+        <v>661.8852444773142</v>
       </c>
       <c r="P23" t="n">
         <v>564.9037429050508</v>
@@ -32736,10 +32736,10 @@
         <v>246.7651341018204</v>
       </c>
       <c r="S23" t="n">
-        <v>89.51760879303099</v>
+        <v>89.517608793031</v>
       </c>
       <c r="T23" t="n">
-        <v>17.19641612688943</v>
+        <v>17.19641612688944</v>
       </c>
       <c r="U23" t="n">
         <v>0.3142691696518912</v>
@@ -32785,28 +32785,28 @@
         <v>20.29954622687494</v>
       </c>
       <c r="I24" t="n">
-        <v>72.36668386964952</v>
+        <v>72.36668386964953</v>
       </c>
       <c r="J24" t="n">
-        <v>198.5797117498242</v>
+        <v>198.5797117498243</v>
       </c>
       <c r="K24" t="n">
-        <v>339.4043566915778</v>
+        <v>339.4043566915779</v>
       </c>
       <c r="L24" t="n">
-        <v>456.3710426709553</v>
+        <v>456.3710426709554</v>
       </c>
       <c r="M24" t="n">
-        <v>532.5634811655607</v>
+        <v>532.5634811655608</v>
       </c>
       <c r="N24" t="n">
         <v>546.6588518199168</v>
       </c>
       <c r="O24" t="n">
-        <v>500.0860509397295</v>
+        <v>500.0860509397296</v>
       </c>
       <c r="P24" t="n">
-        <v>401.3631442441784</v>
+        <v>401.3631442441785</v>
       </c>
       <c r="Q24" t="n">
         <v>268.300632782456</v>
@@ -32821,7 +32821,7 @@
         <v>8.471972289962787</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1382802876490118</v>
+        <v>0.1382802876490119</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32864,7 +32864,7 @@
         <v>15.6669299016369</v>
       </c>
       <c r="I25" t="n">
-        <v>52.99202874704994</v>
+        <v>52.99202874704995</v>
       </c>
       <c r="J25" t="n">
         <v>124.5825294938958</v>
@@ -32873,7 +32873,7 @@
         <v>204.7273661993041</v>
       </c>
       <c r="L25" t="n">
-        <v>261.9805435699077</v>
+        <v>261.9805435699078</v>
       </c>
       <c r="M25" t="n">
         <v>276.2217508117841</v>
@@ -32882,13 +32882,13 @@
         <v>269.6538149634499</v>
       </c>
       <c r="O25" t="n">
-        <v>249.0689428534258</v>
+        <v>249.0689428534259</v>
       </c>
       <c r="P25" t="n">
         <v>213.1215086005901</v>
       </c>
       <c r="Q25" t="n">
-        <v>147.5542856073388</v>
+        <v>147.5542856073389</v>
       </c>
       <c r="R25" t="n">
         <v>79.23173342893256</v>
@@ -32897,7 +32897,7 @@
         <v>30.70910492989561</v>
       </c>
       <c r="T25" t="n">
-        <v>7.529097191993186</v>
+        <v>7.529097191993187</v>
       </c>
       <c r="U25" t="n">
         <v>0.0961161343658706</v>
@@ -32952,16 +32952,16 @@
         <v>499.7027111138349</v>
       </c>
       <c r="L26" t="n">
-        <v>619.9253998730109</v>
+        <v>619.925399873011</v>
       </c>
       <c r="M26" t="n">
-        <v>689.786454195471</v>
+        <v>689.7864541954712</v>
       </c>
       <c r="N26" t="n">
-        <v>700.9479201738891</v>
+        <v>700.9479201738892</v>
       </c>
       <c r="O26" t="n">
-        <v>661.8852444773141</v>
+        <v>661.8852444773142</v>
       </c>
       <c r="P26" t="n">
         <v>564.9037429050508</v>
@@ -32973,10 +32973,10 @@
         <v>246.7651341018204</v>
       </c>
       <c r="S26" t="n">
-        <v>89.51760879303099</v>
+        <v>89.517608793031</v>
       </c>
       <c r="T26" t="n">
-        <v>17.19641612688943</v>
+        <v>17.19641612688944</v>
       </c>
       <c r="U26" t="n">
         <v>0.3142691696518912</v>
@@ -33022,28 +33022,28 @@
         <v>20.29954622687494</v>
       </c>
       <c r="I27" t="n">
-        <v>72.36668386964952</v>
+        <v>72.36668386964953</v>
       </c>
       <c r="J27" t="n">
-        <v>198.5797117498242</v>
+        <v>198.5797117498243</v>
       </c>
       <c r="K27" t="n">
-        <v>339.4043566915778</v>
+        <v>339.4043566915779</v>
       </c>
       <c r="L27" t="n">
-        <v>456.3710426709553</v>
+        <v>456.3710426709554</v>
       </c>
       <c r="M27" t="n">
-        <v>532.5634811655607</v>
+        <v>532.5634811655608</v>
       </c>
       <c r="N27" t="n">
         <v>546.6588518199168</v>
       </c>
       <c r="O27" t="n">
-        <v>500.0860509397295</v>
+        <v>500.0860509397296</v>
       </c>
       <c r="P27" t="n">
-        <v>401.3631442441784</v>
+        <v>401.3631442441785</v>
       </c>
       <c r="Q27" t="n">
         <v>268.300632782456</v>
@@ -33058,7 +33058,7 @@
         <v>8.471972289962787</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1382802876490118</v>
+        <v>0.1382802876490119</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33101,7 +33101,7 @@
         <v>15.6669299016369</v>
       </c>
       <c r="I28" t="n">
-        <v>52.99202874704994</v>
+        <v>52.99202874704995</v>
       </c>
       <c r="J28" t="n">
         <v>124.5825294938958</v>
@@ -33110,7 +33110,7 @@
         <v>204.7273661993041</v>
       </c>
       <c r="L28" t="n">
-        <v>261.9805435699077</v>
+        <v>261.9805435699078</v>
       </c>
       <c r="M28" t="n">
         <v>276.2217508117841</v>
@@ -33119,13 +33119,13 @@
         <v>269.6538149634499</v>
       </c>
       <c r="O28" t="n">
-        <v>249.0689428534258</v>
+        <v>249.0689428534259</v>
       </c>
       <c r="P28" t="n">
         <v>213.1215086005901</v>
       </c>
       <c r="Q28" t="n">
-        <v>147.5542856073388</v>
+        <v>147.5542856073389</v>
       </c>
       <c r="R28" t="n">
         <v>79.23173342893256</v>
@@ -33134,7 +33134,7 @@
         <v>30.70910492989561</v>
       </c>
       <c r="T28" t="n">
-        <v>7.529097191993186</v>
+        <v>7.529097191993187</v>
       </c>
       <c r="U28" t="n">
         <v>0.0961161343658706</v>
@@ -33189,16 +33189,16 @@
         <v>499.7027111138349</v>
       </c>
       <c r="L29" t="n">
-        <v>619.9253998730109</v>
+        <v>619.925399873011</v>
       </c>
       <c r="M29" t="n">
-        <v>689.786454195471</v>
+        <v>689.7864541954712</v>
       </c>
       <c r="N29" t="n">
-        <v>700.9479201738891</v>
+        <v>700.9479201738892</v>
       </c>
       <c r="O29" t="n">
-        <v>661.8852444773141</v>
+        <v>661.8852444773142</v>
       </c>
       <c r="P29" t="n">
         <v>564.9037429050508</v>
@@ -33210,10 +33210,10 @@
         <v>246.7651341018204</v>
       </c>
       <c r="S29" t="n">
-        <v>89.51760879303099</v>
+        <v>89.517608793031</v>
       </c>
       <c r="T29" t="n">
-        <v>17.19641612688943</v>
+        <v>17.19641612688944</v>
       </c>
       <c r="U29" t="n">
         <v>0.3142691696518912</v>
@@ -33259,28 +33259,28 @@
         <v>20.29954622687494</v>
       </c>
       <c r="I30" t="n">
-        <v>72.36668386964952</v>
+        <v>72.36668386964953</v>
       </c>
       <c r="J30" t="n">
-        <v>198.5797117498242</v>
+        <v>198.5797117498243</v>
       </c>
       <c r="K30" t="n">
-        <v>339.4043566915778</v>
+        <v>339.4043566915779</v>
       </c>
       <c r="L30" t="n">
-        <v>456.3710426709553</v>
+        <v>456.3710426709554</v>
       </c>
       <c r="M30" t="n">
-        <v>532.5634811655607</v>
+        <v>532.5634811655608</v>
       </c>
       <c r="N30" t="n">
         <v>546.6588518199168</v>
       </c>
       <c r="O30" t="n">
-        <v>500.0860509397295</v>
+        <v>500.0860509397296</v>
       </c>
       <c r="P30" t="n">
-        <v>401.3631442441784</v>
+        <v>401.3631442441785</v>
       </c>
       <c r="Q30" t="n">
         <v>268.300632782456</v>
@@ -33295,7 +33295,7 @@
         <v>8.471972289962787</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1382802876490118</v>
+        <v>0.1382802876490119</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33338,7 +33338,7 @@
         <v>15.6669299016369</v>
       </c>
       <c r="I31" t="n">
-        <v>52.99202874704994</v>
+        <v>52.99202874704995</v>
       </c>
       <c r="J31" t="n">
         <v>124.5825294938958</v>
@@ -33347,7 +33347,7 @@
         <v>204.7273661993041</v>
       </c>
       <c r="L31" t="n">
-        <v>261.9805435699077</v>
+        <v>261.9805435699078</v>
       </c>
       <c r="M31" t="n">
         <v>276.2217508117841</v>
@@ -33356,13 +33356,13 @@
         <v>269.6538149634499</v>
       </c>
       <c r="O31" t="n">
-        <v>249.0689428534258</v>
+        <v>249.0689428534259</v>
       </c>
       <c r="P31" t="n">
         <v>213.1215086005901</v>
       </c>
       <c r="Q31" t="n">
-        <v>147.5542856073388</v>
+        <v>147.5542856073389</v>
       </c>
       <c r="R31" t="n">
         <v>79.23173342893256</v>
@@ -33371,7 +33371,7 @@
         <v>30.70910492989561</v>
       </c>
       <c r="T31" t="n">
-        <v>7.529097191993186</v>
+        <v>7.529097191993187</v>
       </c>
       <c r="U31" t="n">
         <v>0.0961161343658706</v>
@@ -33426,16 +33426,16 @@
         <v>499.7027111138349</v>
       </c>
       <c r="L32" t="n">
-        <v>619.9253998730109</v>
+        <v>619.925399873011</v>
       </c>
       <c r="M32" t="n">
-        <v>689.786454195471</v>
+        <v>689.7864541954712</v>
       </c>
       <c r="N32" t="n">
-        <v>700.9479201738891</v>
+        <v>700.9479201738892</v>
       </c>
       <c r="O32" t="n">
-        <v>661.8852444773141</v>
+        <v>661.8852444773142</v>
       </c>
       <c r="P32" t="n">
         <v>564.9037429050508</v>
@@ -33447,10 +33447,10 @@
         <v>246.7651341018204</v>
       </c>
       <c r="S32" t="n">
-        <v>89.51760879303099</v>
+        <v>89.517608793031</v>
       </c>
       <c r="T32" t="n">
-        <v>17.19641612688943</v>
+        <v>17.19641612688944</v>
       </c>
       <c r="U32" t="n">
         <v>0.3142691696518912</v>
@@ -33496,28 +33496,28 @@
         <v>20.29954622687494</v>
       </c>
       <c r="I33" t="n">
-        <v>72.36668386964952</v>
+        <v>72.36668386964953</v>
       </c>
       <c r="J33" t="n">
-        <v>198.5797117498242</v>
+        <v>198.5797117498243</v>
       </c>
       <c r="K33" t="n">
-        <v>339.4043566915778</v>
+        <v>339.4043566915779</v>
       </c>
       <c r="L33" t="n">
-        <v>456.3710426709553</v>
+        <v>456.3710426709554</v>
       </c>
       <c r="M33" t="n">
-        <v>532.5634811655607</v>
+        <v>532.5634811655608</v>
       </c>
       <c r="N33" t="n">
         <v>546.6588518199168</v>
       </c>
       <c r="O33" t="n">
-        <v>500.0860509397295</v>
+        <v>500.0860509397296</v>
       </c>
       <c r="P33" t="n">
-        <v>401.3631442441784</v>
+        <v>401.3631442441785</v>
       </c>
       <c r="Q33" t="n">
         <v>268.300632782456</v>
@@ -33532,7 +33532,7 @@
         <v>8.471972289962787</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1382802876490118</v>
+        <v>0.1382802876490119</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33575,7 +33575,7 @@
         <v>15.6669299016369</v>
       </c>
       <c r="I34" t="n">
-        <v>52.99202874704994</v>
+        <v>52.99202874704995</v>
       </c>
       <c r="J34" t="n">
         <v>124.5825294938958</v>
@@ -33584,7 +33584,7 @@
         <v>204.7273661993041</v>
       </c>
       <c r="L34" t="n">
-        <v>261.9805435699077</v>
+        <v>261.9805435699078</v>
       </c>
       <c r="M34" t="n">
         <v>276.2217508117841</v>
@@ -33593,13 +33593,13 @@
         <v>269.6538149634499</v>
       </c>
       <c r="O34" t="n">
-        <v>249.0689428534258</v>
+        <v>249.0689428534259</v>
       </c>
       <c r="P34" t="n">
         <v>213.1215086005901</v>
       </c>
       <c r="Q34" t="n">
-        <v>147.5542856073388</v>
+        <v>147.5542856073389</v>
       </c>
       <c r="R34" t="n">
         <v>79.23173342893256</v>
@@ -33608,7 +33608,7 @@
         <v>30.70910492989561</v>
       </c>
       <c r="T34" t="n">
-        <v>7.529097191993186</v>
+        <v>7.529097191993187</v>
       </c>
       <c r="U34" t="n">
         <v>0.0961161343658706</v>
@@ -33663,16 +33663,16 @@
         <v>499.7027111138349</v>
       </c>
       <c r="L35" t="n">
-        <v>619.9253998730109</v>
+        <v>619.925399873011</v>
       </c>
       <c r="M35" t="n">
-        <v>689.786454195471</v>
+        <v>689.7864541954712</v>
       </c>
       <c r="N35" t="n">
-        <v>700.9479201738891</v>
+        <v>700.9479201738892</v>
       </c>
       <c r="O35" t="n">
-        <v>661.8852444773141</v>
+        <v>661.8852444773142</v>
       </c>
       <c r="P35" t="n">
         <v>564.9037429050508</v>
@@ -33684,10 +33684,10 @@
         <v>246.7651341018204</v>
       </c>
       <c r="S35" t="n">
-        <v>89.51760879303099</v>
+        <v>89.517608793031</v>
       </c>
       <c r="T35" t="n">
-        <v>17.19641612688943</v>
+        <v>17.19641612688944</v>
       </c>
       <c r="U35" t="n">
         <v>0.3142691696518912</v>
@@ -33733,28 +33733,28 @@
         <v>20.29954622687494</v>
       </c>
       <c r="I36" t="n">
-        <v>72.36668386964952</v>
+        <v>72.36668386964953</v>
       </c>
       <c r="J36" t="n">
-        <v>198.5797117498242</v>
+        <v>198.5797117498243</v>
       </c>
       <c r="K36" t="n">
-        <v>339.4043566915778</v>
+        <v>339.4043566915779</v>
       </c>
       <c r="L36" t="n">
-        <v>456.3710426709553</v>
+        <v>456.3710426709554</v>
       </c>
       <c r="M36" t="n">
-        <v>532.5634811655607</v>
+        <v>532.5634811655608</v>
       </c>
       <c r="N36" t="n">
         <v>546.6588518199168</v>
       </c>
       <c r="O36" t="n">
-        <v>500.0860509397295</v>
+        <v>500.0860509397296</v>
       </c>
       <c r="P36" t="n">
-        <v>401.3631442441784</v>
+        <v>401.3631442441785</v>
       </c>
       <c r="Q36" t="n">
         <v>268.300632782456</v>
@@ -33769,7 +33769,7 @@
         <v>8.471972289962787</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1382802876490118</v>
+        <v>0.1382802876490119</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33812,7 +33812,7 @@
         <v>15.6669299016369</v>
       </c>
       <c r="I37" t="n">
-        <v>52.99202874704994</v>
+        <v>52.99202874704995</v>
       </c>
       <c r="J37" t="n">
         <v>124.5825294938958</v>
@@ -33821,7 +33821,7 @@
         <v>204.7273661993041</v>
       </c>
       <c r="L37" t="n">
-        <v>261.9805435699077</v>
+        <v>261.9805435699078</v>
       </c>
       <c r="M37" t="n">
         <v>276.2217508117841</v>
@@ -33830,13 +33830,13 @@
         <v>269.6538149634499</v>
       </c>
       <c r="O37" t="n">
-        <v>249.0689428534258</v>
+        <v>249.0689428534259</v>
       </c>
       <c r="P37" t="n">
         <v>213.1215086005901</v>
       </c>
       <c r="Q37" t="n">
-        <v>147.5542856073388</v>
+        <v>147.5542856073389</v>
       </c>
       <c r="R37" t="n">
         <v>79.23173342893256</v>
@@ -33845,7 +33845,7 @@
         <v>30.70910492989561</v>
       </c>
       <c r="T37" t="n">
-        <v>7.529097191993186</v>
+        <v>7.529097191993187</v>
       </c>
       <c r="U37" t="n">
         <v>0.0961161343658706</v>
@@ -33900,16 +33900,16 @@
         <v>499.7027111138349</v>
       </c>
       <c r="L38" t="n">
-        <v>619.9253998730109</v>
+        <v>619.925399873011</v>
       </c>
       <c r="M38" t="n">
-        <v>689.786454195471</v>
+        <v>689.7864541954712</v>
       </c>
       <c r="N38" t="n">
-        <v>700.9479201738891</v>
+        <v>700.9479201738892</v>
       </c>
       <c r="O38" t="n">
-        <v>661.8852444773141</v>
+        <v>661.8852444773142</v>
       </c>
       <c r="P38" t="n">
         <v>564.9037429050508</v>
@@ -33921,10 +33921,10 @@
         <v>246.7651341018204</v>
       </c>
       <c r="S38" t="n">
-        <v>89.51760879303099</v>
+        <v>89.517608793031</v>
       </c>
       <c r="T38" t="n">
-        <v>17.19641612688943</v>
+        <v>17.19641612688944</v>
       </c>
       <c r="U38" t="n">
         <v>0.3142691696518912</v>
@@ -33970,28 +33970,28 @@
         <v>20.29954622687494</v>
       </c>
       <c r="I39" t="n">
-        <v>72.36668386964952</v>
+        <v>72.36668386964953</v>
       </c>
       <c r="J39" t="n">
-        <v>198.5797117498242</v>
+        <v>198.5797117498243</v>
       </c>
       <c r="K39" t="n">
-        <v>339.4043566915778</v>
+        <v>339.4043566915779</v>
       </c>
       <c r="L39" t="n">
-        <v>456.3710426709553</v>
+        <v>456.3710426709554</v>
       </c>
       <c r="M39" t="n">
-        <v>532.5634811655607</v>
+        <v>532.5634811655608</v>
       </c>
       <c r="N39" t="n">
         <v>546.6588518199168</v>
       </c>
       <c r="O39" t="n">
-        <v>500.0860509397295</v>
+        <v>500.0860509397296</v>
       </c>
       <c r="P39" t="n">
-        <v>401.3631442441784</v>
+        <v>401.3631442441785</v>
       </c>
       <c r="Q39" t="n">
         <v>268.300632782456</v>
@@ -34006,7 +34006,7 @@
         <v>8.471972289962787</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1382802876490118</v>
+        <v>0.1382802876490119</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34049,7 +34049,7 @@
         <v>15.6669299016369</v>
       </c>
       <c r="I40" t="n">
-        <v>52.99202874704994</v>
+        <v>52.99202874704995</v>
       </c>
       <c r="J40" t="n">
         <v>124.5825294938958</v>
@@ -34058,7 +34058,7 @@
         <v>204.7273661993041</v>
       </c>
       <c r="L40" t="n">
-        <v>261.9805435699077</v>
+        <v>261.9805435699078</v>
       </c>
       <c r="M40" t="n">
         <v>276.2217508117841</v>
@@ -34067,13 +34067,13 @@
         <v>269.6538149634499</v>
       </c>
       <c r="O40" t="n">
-        <v>249.0689428534258</v>
+        <v>249.0689428534259</v>
       </c>
       <c r="P40" t="n">
         <v>213.1215086005901</v>
       </c>
       <c r="Q40" t="n">
-        <v>147.5542856073388</v>
+        <v>147.5542856073389</v>
       </c>
       <c r="R40" t="n">
         <v>79.23173342893256</v>
@@ -34082,7 +34082,7 @@
         <v>30.70910492989561</v>
       </c>
       <c r="T40" t="n">
-        <v>7.529097191993186</v>
+        <v>7.529097191993187</v>
       </c>
       <c r="U40" t="n">
         <v>0.0961161343658706</v>
@@ -34137,16 +34137,16 @@
         <v>499.7027111138349</v>
       </c>
       <c r="L41" t="n">
-        <v>619.9253998730109</v>
+        <v>619.925399873011</v>
       </c>
       <c r="M41" t="n">
-        <v>689.786454195471</v>
+        <v>689.7864541954712</v>
       </c>
       <c r="N41" t="n">
-        <v>700.9479201738891</v>
+        <v>700.9479201738892</v>
       </c>
       <c r="O41" t="n">
-        <v>661.8852444773141</v>
+        <v>661.8852444773142</v>
       </c>
       <c r="P41" t="n">
         <v>564.9037429050508</v>
@@ -34158,10 +34158,10 @@
         <v>246.7651341018204</v>
       </c>
       <c r="S41" t="n">
-        <v>89.51760879303099</v>
+        <v>89.517608793031</v>
       </c>
       <c r="T41" t="n">
-        <v>17.19641612688943</v>
+        <v>17.19641612688944</v>
       </c>
       <c r="U41" t="n">
         <v>0.3142691696518912</v>
@@ -34207,28 +34207,28 @@
         <v>20.29954622687494</v>
       </c>
       <c r="I42" t="n">
-        <v>72.36668386964952</v>
+        <v>72.36668386964953</v>
       </c>
       <c r="J42" t="n">
-        <v>198.5797117498242</v>
+        <v>198.5797117498243</v>
       </c>
       <c r="K42" t="n">
-        <v>339.4043566915778</v>
+        <v>339.4043566915779</v>
       </c>
       <c r="L42" t="n">
-        <v>456.3710426709553</v>
+        <v>456.3710426709554</v>
       </c>
       <c r="M42" t="n">
-        <v>532.5634811655607</v>
+        <v>532.5634811655608</v>
       </c>
       <c r="N42" t="n">
         <v>546.6588518199168</v>
       </c>
       <c r="O42" t="n">
-        <v>500.0860509397295</v>
+        <v>500.0860509397296</v>
       </c>
       <c r="P42" t="n">
-        <v>401.3631442441784</v>
+        <v>401.3631442441785</v>
       </c>
       <c r="Q42" t="n">
         <v>268.300632782456</v>
@@ -34243,7 +34243,7 @@
         <v>8.471972289962787</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1382802876490118</v>
+        <v>0.1382802876490119</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34286,7 +34286,7 @@
         <v>15.6669299016369</v>
       </c>
       <c r="I43" t="n">
-        <v>52.99202874704994</v>
+        <v>52.99202874704995</v>
       </c>
       <c r="J43" t="n">
         <v>124.5825294938958</v>
@@ -34295,7 +34295,7 @@
         <v>204.7273661993041</v>
       </c>
       <c r="L43" t="n">
-        <v>261.9805435699077</v>
+        <v>261.9805435699078</v>
       </c>
       <c r="M43" t="n">
         <v>276.2217508117841</v>
@@ -34304,13 +34304,13 @@
         <v>269.6538149634499</v>
       </c>
       <c r="O43" t="n">
-        <v>249.0689428534258</v>
+        <v>249.0689428534259</v>
       </c>
       <c r="P43" t="n">
         <v>213.1215086005901</v>
       </c>
       <c r="Q43" t="n">
-        <v>147.5542856073388</v>
+        <v>147.5542856073389</v>
       </c>
       <c r="R43" t="n">
         <v>79.23173342893256</v>
@@ -34319,7 +34319,7 @@
         <v>30.70910492989561</v>
       </c>
       <c r="T43" t="n">
-        <v>7.529097191993186</v>
+        <v>7.529097191993187</v>
       </c>
       <c r="U43" t="n">
         <v>0.0961161343658706</v>
@@ -34374,16 +34374,16 @@
         <v>499.7027111138349</v>
       </c>
       <c r="L44" t="n">
-        <v>619.9253998730109</v>
+        <v>619.925399873011</v>
       </c>
       <c r="M44" t="n">
-        <v>689.786454195471</v>
+        <v>689.7864541954712</v>
       </c>
       <c r="N44" t="n">
-        <v>700.9479201738891</v>
+        <v>700.9479201738892</v>
       </c>
       <c r="O44" t="n">
-        <v>661.8852444773141</v>
+        <v>661.8852444773142</v>
       </c>
       <c r="P44" t="n">
         <v>564.9037429050508</v>
@@ -34395,10 +34395,10 @@
         <v>246.7651341018204</v>
       </c>
       <c r="S44" t="n">
-        <v>89.51760879303099</v>
+        <v>89.517608793031</v>
       </c>
       <c r="T44" t="n">
-        <v>17.19641612688943</v>
+        <v>17.19641612688944</v>
       </c>
       <c r="U44" t="n">
         <v>0.3142691696518912</v>
@@ -34444,28 +34444,28 @@
         <v>20.29954622687494</v>
       </c>
       <c r="I45" t="n">
-        <v>72.36668386964952</v>
+        <v>72.36668386964953</v>
       </c>
       <c r="J45" t="n">
-        <v>198.5797117498242</v>
+        <v>198.5797117498243</v>
       </c>
       <c r="K45" t="n">
-        <v>339.4043566915778</v>
+        <v>339.4043566915779</v>
       </c>
       <c r="L45" t="n">
-        <v>456.3710426709553</v>
+        <v>456.3710426709554</v>
       </c>
       <c r="M45" t="n">
-        <v>532.5634811655607</v>
+        <v>532.5634811655608</v>
       </c>
       <c r="N45" t="n">
         <v>546.6588518199168</v>
       </c>
       <c r="O45" t="n">
-        <v>500.0860509397295</v>
+        <v>500.0860509397296</v>
       </c>
       <c r="P45" t="n">
-        <v>401.3631442441784</v>
+        <v>401.3631442441785</v>
       </c>
       <c r="Q45" t="n">
         <v>268.300632782456</v>
@@ -34480,7 +34480,7 @@
         <v>8.471972289962787</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1382802876490118</v>
+        <v>0.1382802876490119</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34523,7 +34523,7 @@
         <v>15.6669299016369</v>
       </c>
       <c r="I46" t="n">
-        <v>52.99202874704994</v>
+        <v>52.99202874704995</v>
       </c>
       <c r="J46" t="n">
         <v>124.5825294938958</v>
@@ -34532,7 +34532,7 @@
         <v>204.7273661993041</v>
       </c>
       <c r="L46" t="n">
-        <v>261.9805435699077</v>
+        <v>261.9805435699078</v>
       </c>
       <c r="M46" t="n">
         <v>276.2217508117841</v>
@@ -34541,13 +34541,13 @@
         <v>269.6538149634499</v>
       </c>
       <c r="O46" t="n">
-        <v>249.0689428534258</v>
+        <v>249.0689428534259</v>
       </c>
       <c r="P46" t="n">
         <v>213.1215086005901</v>
       </c>
       <c r="Q46" t="n">
-        <v>147.5542856073388</v>
+        <v>147.5542856073389</v>
       </c>
       <c r="R46" t="n">
         <v>79.23173342893256</v>
@@ -34556,7 +34556,7 @@
         <v>30.70910492989561</v>
       </c>
       <c r="T46" t="n">
-        <v>7.529097191993186</v>
+        <v>7.529097191993187</v>
       </c>
       <c r="U46" t="n">
         <v>0.0961161343658706</v>
@@ -34786,10 +34786,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>226.4350751681936</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
         <v>241.0142888776591</v>
@@ -34798,7 +34798,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35017,22 +35017,22 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="N6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>113.3808631277494</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35254,22 +35254,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
+        <v>240.0046611659691</v>
+      </c>
+      <c r="N9" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N9" t="n">
-        <v>169.9067907798016</v>
-      </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35412,19 +35412,19 @@
         <v>321.4657473671654</v>
       </c>
       <c r="K11" t="n">
-        <v>294.5788612729293</v>
+        <v>603.7582726400192</v>
       </c>
       <c r="L11" t="n">
-        <v>801.8201994534741</v>
+        <v>801.8201994534742</v>
       </c>
       <c r="M11" t="n">
-        <v>459.4402209681983</v>
+        <v>459.4402209681984</v>
       </c>
       <c r="N11" t="n">
-        <v>908.8817809892823</v>
+        <v>599.7023696221916</v>
       </c>
       <c r="O11" t="n">
-        <v>812.5872143183727</v>
+        <v>812.5872143183728</v>
       </c>
       <c r="P11" t="n">
         <v>655.4694553212639</v>
@@ -35433,7 +35433,7 @@
         <v>414.2284857135264</v>
       </c>
       <c r="R11" t="n">
-        <v>96.89601616067071</v>
+        <v>96.89601616067074</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>71.74208508315755</v>
+        <v>197.8331204235664</v>
       </c>
       <c r="K12" t="n">
         <v>201.5629177172189</v>
       </c>
       <c r="L12" t="n">
-        <v>317.8166628910811</v>
+        <v>317.8166628910812</v>
       </c>
       <c r="M12" t="n">
-        <v>390.4294472435424</v>
+        <v>390.4294472435425</v>
       </c>
       <c r="N12" t="n">
-        <v>585.21979559434</v>
+        <v>415.3171397365835</v>
       </c>
       <c r="O12" t="n">
-        <v>357.4898064952851</v>
+        <v>357.4898064952852</v>
       </c>
       <c r="P12" t="n">
-        <v>267.3887368298482</v>
+        <v>311.2003573471953</v>
       </c>
       <c r="Q12" t="n">
         <v>338.3961464322836</v>
@@ -35567,13 +35567,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>31.22334937722302</v>
+        <v>31.22334937722303</v>
       </c>
       <c r="K13" t="n">
-        <v>182.4578743734212</v>
+        <v>182.4578743734213</v>
       </c>
       <c r="L13" t="n">
-        <v>289.5705688302238</v>
+        <v>289.5705688302239</v>
       </c>
       <c r="M13" t="n">
         <v>315.8056277736247</v>
@@ -35582,13 +35582,13 @@
         <v>313.7859873426785</v>
       </c>
       <c r="O13" t="n">
-        <v>273.6540707674655</v>
+        <v>273.6540707674656</v>
       </c>
       <c r="P13" t="n">
-        <v>210.4000678654835</v>
+        <v>210.4000678654836</v>
       </c>
       <c r="Q13" t="n">
-        <v>61.39224235564446</v>
+        <v>61.39224235564448</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,22 +35646,22 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>152.3691321950916</v>
+        <v>321.4657473671654</v>
       </c>
       <c r="K14" t="n">
-        <v>603.7582726400191</v>
+        <v>603.7582726400192</v>
       </c>
       <c r="L14" t="n">
-        <v>649.5707941776097</v>
+        <v>801.8201994534742</v>
       </c>
       <c r="M14" t="n">
-        <v>908.9537544610308</v>
+        <v>459.4402209681984</v>
       </c>
       <c r="N14" t="n">
-        <v>471.5348565772982</v>
+        <v>599.7023696221916</v>
       </c>
       <c r="O14" t="n">
-        <v>812.5872143183727</v>
+        <v>812.5872143183728</v>
       </c>
       <c r="P14" t="n">
         <v>655.4694553212639</v>
@@ -35670,7 +35670,7 @@
         <v>414.2284857135264</v>
       </c>
       <c r="R14" t="n">
-        <v>96.89601616067071</v>
+        <v>96.89601616067074</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>71.74208508315755</v>
+        <v>197.8331204235664</v>
       </c>
       <c r="K15" t="n">
-        <v>371.4655735749753</v>
+        <v>201.5629177172189</v>
       </c>
       <c r="L15" t="n">
-        <v>317.8166628910811</v>
+        <v>317.8166628910812</v>
       </c>
       <c r="M15" t="n">
-        <v>390.4294472435424</v>
+        <v>434.2410677608896</v>
       </c>
       <c r="N15" t="n">
         <v>415.3171397365835</v>
       </c>
       <c r="O15" t="n">
-        <v>357.4898064952851</v>
+        <v>357.4898064952852</v>
       </c>
       <c r="P15" t="n">
-        <v>267.3887368298482</v>
+        <v>267.3887368298483</v>
       </c>
       <c r="Q15" t="n">
         <v>338.3961464322836</v>
@@ -35804,13 +35804,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>31.22334937722302</v>
+        <v>31.22334937722303</v>
       </c>
       <c r="K16" t="n">
-        <v>182.4578743734212</v>
+        <v>182.4578743734213</v>
       </c>
       <c r="L16" t="n">
-        <v>289.5705688302238</v>
+        <v>289.5705688302239</v>
       </c>
       <c r="M16" t="n">
         <v>315.8056277736247</v>
@@ -35819,13 +35819,13 @@
         <v>313.7859873426785</v>
       </c>
       <c r="O16" t="n">
-        <v>273.6540707674655</v>
+        <v>273.6540707674656</v>
       </c>
       <c r="P16" t="n">
-        <v>210.4000678654835</v>
+        <v>210.4000678654836</v>
       </c>
       <c r="Q16" t="n">
-        <v>61.39224235564446</v>
+        <v>61.39224235564448</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,28 +35886,28 @@
         <v>321.4657473671654</v>
       </c>
       <c r="K17" t="n">
-        <v>279.6128600688543</v>
+        <v>603.7582726400192</v>
       </c>
       <c r="L17" t="n">
-        <v>801.8201994534741</v>
+        <v>801.8201994534742</v>
       </c>
       <c r="M17" t="n">
-        <v>686.7212128321781</v>
+        <v>587.6077340130919</v>
       </c>
       <c r="N17" t="n">
-        <v>908.8817809892823</v>
+        <v>471.5348565772983</v>
       </c>
       <c r="O17" t="n">
-        <v>812.5872143183727</v>
+        <v>812.5872143183728</v>
       </c>
       <c r="P17" t="n">
         <v>655.4694553212639</v>
       </c>
       <c r="Q17" t="n">
-        <v>201.9134950536217</v>
+        <v>414.2284857135264</v>
       </c>
       <c r="R17" t="n">
-        <v>96.89601616067071</v>
+        <v>96.89601616067074</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,25 +35962,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>71.74208508315755</v>
+        <v>197.8331204235664</v>
       </c>
       <c r="K18" t="n">
-        <v>371.4655735749753</v>
+        <v>201.5629177172189</v>
       </c>
       <c r="L18" t="n">
-        <v>317.8166628910811</v>
+        <v>317.8166628910812</v>
       </c>
       <c r="M18" t="n">
-        <v>390.4294472435424</v>
+        <v>390.4294472435425</v>
       </c>
       <c r="N18" t="n">
         <v>415.3171397365835</v>
       </c>
       <c r="O18" t="n">
-        <v>357.4898064952851</v>
+        <v>357.4898064952852</v>
       </c>
       <c r="P18" t="n">
-        <v>267.3887368298482</v>
+        <v>311.2003573471953</v>
       </c>
       <c r="Q18" t="n">
         <v>338.3961464322836</v>
@@ -36041,13 +36041,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>31.22334937722302</v>
+        <v>31.22334937722303</v>
       </c>
       <c r="K19" t="n">
-        <v>182.4578743734212</v>
+        <v>182.4578743734213</v>
       </c>
       <c r="L19" t="n">
-        <v>289.5705688302238</v>
+        <v>289.5705688302239</v>
       </c>
       <c r="M19" t="n">
         <v>315.8056277736247</v>
@@ -36056,13 +36056,13 @@
         <v>313.7859873426785</v>
       </c>
       <c r="O19" t="n">
-        <v>273.6540707674655</v>
+        <v>273.6540707674656</v>
       </c>
       <c r="P19" t="n">
-        <v>210.4000678654835</v>
+        <v>210.4000678654836</v>
       </c>
       <c r="Q19" t="n">
-        <v>61.39224235564446</v>
+        <v>61.39224235564448</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,28 +36123,28 @@
         <v>321.4657473671654</v>
       </c>
       <c r="K20" t="n">
-        <v>603.7582726400191</v>
+        <v>603.7582726400192</v>
       </c>
       <c r="L20" t="n">
-        <v>801.8201994534741</v>
+        <v>801.8201994534742</v>
       </c>
       <c r="M20" t="n">
-        <v>684.3745084324956</v>
+        <v>459.4402209681984</v>
       </c>
       <c r="N20" t="n">
-        <v>908.8817809892823</v>
+        <v>599.7023696221916</v>
       </c>
       <c r="O20" t="n">
-        <v>812.5872143183727</v>
+        <v>812.5872143183728</v>
       </c>
       <c r="P20" t="n">
-        <v>333.6707471497812</v>
+        <v>655.4694553212639</v>
       </c>
       <c r="Q20" t="n">
-        <v>201.9134950536217</v>
+        <v>414.2284857135264</v>
       </c>
       <c r="R20" t="n">
-        <v>96.89601616067071</v>
+        <v>96.89601616067074</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>71.74208508315755</v>
+        <v>71.74208508315758</v>
       </c>
       <c r="K21" t="n">
-        <v>201.5629177172189</v>
+        <v>466.0281547297975</v>
       </c>
       <c r="L21" t="n">
-        <v>317.8166628910811</v>
+        <v>317.8166628910812</v>
       </c>
       <c r="M21" t="n">
-        <v>740.067508192497</v>
+        <v>390.4294472435425</v>
       </c>
       <c r="N21" t="n">
         <v>415.3171397365835</v>
       </c>
       <c r="O21" t="n">
-        <v>357.4898064952851</v>
+        <v>357.4898064952852</v>
       </c>
       <c r="P21" t="n">
-        <v>267.3887368298482</v>
+        <v>267.3887368298483</v>
       </c>
       <c r="Q21" t="n">
-        <v>128.3188586964345</v>
+        <v>243.8335652774612</v>
       </c>
       <c r="R21" t="n">
-        <v>30.34188264465099</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,13 +36278,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>31.22334937722302</v>
+        <v>31.22334937722303</v>
       </c>
       <c r="K22" t="n">
-        <v>182.4578743734212</v>
+        <v>182.4578743734213</v>
       </c>
       <c r="L22" t="n">
-        <v>289.5705688302238</v>
+        <v>289.5705688302239</v>
       </c>
       <c r="M22" t="n">
         <v>315.8056277736247</v>
@@ -36293,13 +36293,13 @@
         <v>313.7859873426785</v>
       </c>
       <c r="O22" t="n">
-        <v>273.6540707674655</v>
+        <v>273.6540707674656</v>
       </c>
       <c r="P22" t="n">
-        <v>210.4000678654835</v>
+        <v>210.4000678654836</v>
       </c>
       <c r="Q22" t="n">
-        <v>61.39224235564446</v>
+        <v>61.39224235564448</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>152.3691321950916</v>
+        <v>321.4657473671654</v>
       </c>
       <c r="K23" t="n">
-        <v>603.7582726400191</v>
+        <v>603.7582726400192</v>
       </c>
       <c r="L23" t="n">
-        <v>801.8201994534741</v>
+        <v>801.8201994534742</v>
       </c>
       <c r="M23" t="n">
-        <v>908.9537544610308</v>
+        <v>587.6077340130919</v>
       </c>
       <c r="N23" t="n">
-        <v>597.3168618343208</v>
+        <v>471.5348565772983</v>
       </c>
       <c r="O23" t="n">
-        <v>812.5872143183727</v>
+        <v>812.5872143183728</v>
       </c>
       <c r="P23" t="n">
         <v>655.4694553212639</v>
       </c>
       <c r="Q23" t="n">
-        <v>201.9134950536217</v>
+        <v>414.2284857135264</v>
       </c>
       <c r="R23" t="n">
-        <v>31.17959628768827</v>
+        <v>96.89601616067074</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>71.74208508315755</v>
+        <v>71.74208508315758</v>
       </c>
       <c r="K24" t="n">
         <v>201.5629177172189</v>
       </c>
       <c r="L24" t="n">
-        <v>317.8166628910811</v>
+        <v>317.8166628910812</v>
       </c>
       <c r="M24" t="n">
-        <v>390.4294472435424</v>
+        <v>390.4294472435425</v>
       </c>
       <c r="N24" t="n">
-        <v>585.21979559434</v>
+        <v>415.3171397365835</v>
       </c>
       <c r="O24" t="n">
-        <v>357.4898064952851</v>
+        <v>357.4898064952852</v>
       </c>
       <c r="P24" t="n">
-        <v>267.3887368298482</v>
+        <v>585.8515054697855</v>
       </c>
       <c r="Q24" t="n">
-        <v>338.3961464322836</v>
+        <v>189.8360336501024</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,13 +36515,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>31.22334937722302</v>
+        <v>31.22334937722303</v>
       </c>
       <c r="K25" t="n">
-        <v>182.4578743734212</v>
+        <v>182.4578743734213</v>
       </c>
       <c r="L25" t="n">
-        <v>289.5705688302238</v>
+        <v>289.5705688302239</v>
       </c>
       <c r="M25" t="n">
         <v>315.8056277736247</v>
@@ -36530,13 +36530,13 @@
         <v>313.7859873426785</v>
       </c>
       <c r="O25" t="n">
-        <v>273.6540707674655</v>
+        <v>273.6540707674656</v>
       </c>
       <c r="P25" t="n">
-        <v>210.4000678654835</v>
+        <v>210.4000678654836</v>
       </c>
       <c r="Q25" t="n">
-        <v>61.39224235564446</v>
+        <v>61.39224235564448</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,28 +36597,28 @@
         <v>152.3691321950916</v>
       </c>
       <c r="K26" t="n">
-        <v>603.7582726400191</v>
+        <v>548.2756417835573</v>
       </c>
       <c r="L26" t="n">
-        <v>801.8201994534741</v>
+        <v>801.8201994534742</v>
       </c>
       <c r="M26" t="n">
-        <v>597.3888353060701</v>
+        <v>908.9537544610309</v>
       </c>
       <c r="N26" t="n">
-        <v>908.8817809892823</v>
+        <v>908.8817809892824</v>
       </c>
       <c r="O26" t="n">
-        <v>812.5872143183727</v>
+        <v>812.5872143183728</v>
       </c>
       <c r="P26" t="n">
-        <v>655.4694553212639</v>
+        <v>333.6707471497812</v>
       </c>
       <c r="Q26" t="n">
         <v>201.9134950536217</v>
       </c>
       <c r="R26" t="n">
-        <v>31.17959628768827</v>
+        <v>96.89601616067074</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>71.74208508315755</v>
+        <v>71.74208508315758</v>
       </c>
       <c r="K27" t="n">
-        <v>201.5629177172189</v>
+        <v>466.0281547297975</v>
       </c>
       <c r="L27" t="n">
-        <v>317.8166628910811</v>
+        <v>317.8166628910812</v>
       </c>
       <c r="M27" t="n">
-        <v>770.4093908371481</v>
+        <v>390.4294472435425</v>
       </c>
       <c r="N27" t="n">
         <v>415.3171397365835</v>
       </c>
       <c r="O27" t="n">
-        <v>357.4898064952851</v>
+        <v>357.4898064952852</v>
       </c>
       <c r="P27" t="n">
-        <v>267.3887368298482</v>
+        <v>267.3887368298483</v>
       </c>
       <c r="Q27" t="n">
-        <v>128.3188586964345</v>
+        <v>243.8335652774612</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,13 +36752,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>31.22334937722302</v>
+        <v>31.22334937722303</v>
       </c>
       <c r="K28" t="n">
-        <v>182.4578743734212</v>
+        <v>182.4578743734213</v>
       </c>
       <c r="L28" t="n">
-        <v>289.5705688302238</v>
+        <v>289.5705688302239</v>
       </c>
       <c r="M28" t="n">
         <v>315.8056277736247</v>
@@ -36767,13 +36767,13 @@
         <v>313.7859873426785</v>
       </c>
       <c r="O28" t="n">
-        <v>273.6540707674655</v>
+        <v>273.6540707674656</v>
       </c>
       <c r="P28" t="n">
-        <v>210.4000678654835</v>
+        <v>210.4000678654836</v>
       </c>
       <c r="Q28" t="n">
-        <v>61.39224235564446</v>
+        <v>61.39224235564448</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>152.3691321950916</v>
+        <v>321.4657473671654</v>
       </c>
       <c r="K29" t="n">
-        <v>603.7582726400191</v>
+        <v>279.6128600688544</v>
       </c>
       <c r="L29" t="n">
-        <v>801.8201994534741</v>
+        <v>801.8201994534742</v>
       </c>
       <c r="M29" t="n">
-        <v>531.6724154330872</v>
+        <v>908.9537544610309</v>
       </c>
       <c r="N29" t="n">
-        <v>908.8817809892823</v>
+        <v>908.8817809892824</v>
       </c>
       <c r="O29" t="n">
-        <v>812.5872143183727</v>
+        <v>812.5872143183728</v>
       </c>
       <c r="P29" t="n">
-        <v>655.4694553212639</v>
+        <v>333.6707471497812</v>
       </c>
       <c r="Q29" t="n">
-        <v>201.9134950536217</v>
+        <v>301.47966159625</v>
       </c>
       <c r="R29" t="n">
-        <v>96.89601616067071</v>
+        <v>96.89601616067074</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>197.8331204235664</v>
+        <v>71.74208508315758</v>
       </c>
       <c r="K30" t="n">
-        <v>201.5629177172189</v>
+        <v>466.0281547297975</v>
       </c>
       <c r="L30" t="n">
-        <v>317.8166628910811</v>
+        <v>317.8166628910812</v>
       </c>
       <c r="M30" t="n">
-        <v>644.3183554967391</v>
+        <v>390.4294472435425</v>
       </c>
       <c r="N30" t="n">
         <v>415.3171397365835</v>
       </c>
       <c r="O30" t="n">
-        <v>357.4898064952851</v>
+        <v>357.4898064952852</v>
       </c>
       <c r="P30" t="n">
-        <v>267.3887368298482</v>
+        <v>267.3887368298483</v>
       </c>
       <c r="Q30" t="n">
-        <v>128.3188586964345</v>
+        <v>243.8335652774612</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,13 +36989,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>31.22334937722302</v>
+        <v>31.22334937722303</v>
       </c>
       <c r="K31" t="n">
-        <v>182.4578743734212</v>
+        <v>182.4578743734213</v>
       </c>
       <c r="L31" t="n">
-        <v>289.5705688302238</v>
+        <v>289.5705688302239</v>
       </c>
       <c r="M31" t="n">
         <v>315.8056277736247</v>
@@ -37004,13 +37004,13 @@
         <v>313.7859873426785</v>
       </c>
       <c r="O31" t="n">
-        <v>273.6540707674655</v>
+        <v>273.6540707674656</v>
       </c>
       <c r="P31" t="n">
-        <v>210.4000678654835</v>
+        <v>210.4000678654836</v>
       </c>
       <c r="Q31" t="n">
-        <v>61.39224235564446</v>
+        <v>61.39224235564448</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>152.3691321950916</v>
+        <v>321.4657473671654</v>
       </c>
       <c r="K32" t="n">
-        <v>603.7582726400191</v>
+        <v>279.6128600688544</v>
       </c>
       <c r="L32" t="n">
-        <v>801.8201994534741</v>
+        <v>801.8201994534742</v>
       </c>
       <c r="M32" t="n">
-        <v>597.3888353060692</v>
+        <v>908.9537544610309</v>
       </c>
       <c r="N32" t="n">
-        <v>908.8817809892823</v>
+        <v>908.8817809892824</v>
       </c>
       <c r="O32" t="n">
-        <v>812.5872143183727</v>
+        <v>812.5872143183728</v>
       </c>
       <c r="P32" t="n">
-        <v>655.4694553212639</v>
+        <v>333.6707471497812</v>
       </c>
       <c r="Q32" t="n">
-        <v>201.9134950536217</v>
+        <v>301.47966159625</v>
       </c>
       <c r="R32" t="n">
-        <v>31.17959628768827</v>
+        <v>96.89601616067074</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>197.8331204235664</v>
+        <v>71.74208508315758</v>
       </c>
       <c r="K33" t="n">
-        <v>201.5629177172189</v>
+        <v>466.0281547297975</v>
       </c>
       <c r="L33" t="n">
-        <v>571.7055711442778</v>
+        <v>317.8166628910812</v>
       </c>
       <c r="M33" t="n">
-        <v>390.4294472435424</v>
+        <v>390.4294472435425</v>
       </c>
       <c r="N33" t="n">
         <v>415.3171397365835</v>
       </c>
       <c r="O33" t="n">
-        <v>357.4898064952851</v>
+        <v>357.4898064952852</v>
       </c>
       <c r="P33" t="n">
-        <v>267.3887368298482</v>
+        <v>267.3887368298483</v>
       </c>
       <c r="Q33" t="n">
-        <v>128.3188586964345</v>
+        <v>243.8335652774612</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,13 +37226,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>31.22334937722302</v>
+        <v>31.22334937722303</v>
       </c>
       <c r="K34" t="n">
-        <v>182.4578743734212</v>
+        <v>182.4578743734213</v>
       </c>
       <c r="L34" t="n">
-        <v>289.5705688302238</v>
+        <v>289.5705688302239</v>
       </c>
       <c r="M34" t="n">
         <v>315.8056277736247</v>
@@ -37241,13 +37241,13 @@
         <v>313.7859873426785</v>
       </c>
       <c r="O34" t="n">
-        <v>273.6540707674655</v>
+        <v>273.6540707674656</v>
       </c>
       <c r="P34" t="n">
-        <v>210.4000678654835</v>
+        <v>210.4000678654836</v>
       </c>
       <c r="Q34" t="n">
-        <v>61.39224235564446</v>
+        <v>61.39224235564448</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,28 +37308,28 @@
         <v>321.4657473671654</v>
       </c>
       <c r="K35" t="n">
-        <v>506.8938519328332</v>
+        <v>603.7582726400192</v>
       </c>
       <c r="L35" t="n">
-        <v>801.8201994534741</v>
+        <v>801.8201994534742</v>
       </c>
       <c r="M35" t="n">
-        <v>459.4402209681983</v>
+        <v>472.0595177725895</v>
       </c>
       <c r="N35" t="n">
-        <v>908.8817809892823</v>
+        <v>908.8817809892824</v>
       </c>
       <c r="O35" t="n">
-        <v>812.5872143183727</v>
+        <v>812.5872143183728</v>
       </c>
       <c r="P35" t="n">
-        <v>655.4694553212639</v>
+        <v>333.6707471497812</v>
       </c>
       <c r="Q35" t="n">
-        <v>201.9134950536217</v>
+        <v>414.2284857135264</v>
       </c>
       <c r="R35" t="n">
-        <v>96.89601616067071</v>
+        <v>96.89601616067074</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>71.74208508315755</v>
+        <v>71.74208508315758</v>
       </c>
       <c r="K36" t="n">
-        <v>201.5629177172189</v>
+        <v>466.0281547297975</v>
       </c>
       <c r="L36" t="n">
-        <v>317.8166628910811</v>
+        <v>317.8166628910812</v>
       </c>
       <c r="M36" t="n">
-        <v>390.4294472435424</v>
+        <v>390.4294472435425</v>
       </c>
       <c r="N36" t="n">
         <v>415.3171397365835</v>
       </c>
       <c r="O36" t="n">
-        <v>737.4697500888906</v>
+        <v>357.4898064952852</v>
       </c>
       <c r="P36" t="n">
-        <v>267.3887368298482</v>
+        <v>267.3887368298483</v>
       </c>
       <c r="Q36" t="n">
-        <v>128.3188586964345</v>
+        <v>243.8335652774612</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,13 +37463,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>31.22334937722302</v>
+        <v>31.22334937722303</v>
       </c>
       <c r="K37" t="n">
-        <v>182.4578743734212</v>
+        <v>182.4578743734213</v>
       </c>
       <c r="L37" t="n">
-        <v>289.5705688302238</v>
+        <v>289.5705688302239</v>
       </c>
       <c r="M37" t="n">
         <v>315.8056277736247</v>
@@ -37478,13 +37478,13 @@
         <v>313.7859873426785</v>
       </c>
       <c r="O37" t="n">
-        <v>273.6540707674655</v>
+        <v>273.6540707674656</v>
       </c>
       <c r="P37" t="n">
-        <v>210.4000678654835</v>
+        <v>210.4000678654836</v>
       </c>
       <c r="Q37" t="n">
-        <v>61.39224235564446</v>
+        <v>61.39224235564448</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>152.3691321950916</v>
+        <v>321.4657473671654</v>
       </c>
       <c r="K38" t="n">
-        <v>603.7582726400191</v>
+        <v>279.6128600688544</v>
       </c>
       <c r="L38" t="n">
-        <v>801.8201994534741</v>
+        <v>801.8201994534742</v>
       </c>
       <c r="M38" t="n">
-        <v>459.4402209681983</v>
+        <v>908.9537544610309</v>
       </c>
       <c r="N38" t="n">
-        <v>908.8817809892823</v>
+        <v>908.8817809892824</v>
       </c>
       <c r="O38" t="n">
-        <v>812.5872143183727</v>
+        <v>812.5872143183728</v>
       </c>
       <c r="P38" t="n">
-        <v>581.1030789992291</v>
+        <v>333.6707471497812</v>
       </c>
       <c r="Q38" t="n">
-        <v>414.2284857135264</v>
+        <v>301.4796615962491</v>
       </c>
       <c r="R38" t="n">
-        <v>31.17959628768827</v>
+        <v>96.89601616067074</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>71.74208508315755</v>
+        <v>71.74208508315758</v>
       </c>
       <c r="K39" t="n">
-        <v>201.5629177172189</v>
+        <v>466.0281547297975</v>
       </c>
       <c r="L39" t="n">
-        <v>317.8166628910811</v>
+        <v>317.8166628910812</v>
       </c>
       <c r="M39" t="n">
-        <v>390.4294472435424</v>
+        <v>390.4294472435425</v>
       </c>
       <c r="N39" t="n">
         <v>415.3171397365835</v>
       </c>
       <c r="O39" t="n">
-        <v>357.4898064952851</v>
+        <v>357.4898064952852</v>
       </c>
       <c r="P39" t="n">
-        <v>406.9495100429538</v>
+        <v>267.3887368298483</v>
       </c>
       <c r="Q39" t="n">
-        <v>338.3961464322836</v>
+        <v>243.8335652774612</v>
       </c>
       <c r="R39" t="n">
-        <v>30.34188264465099</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,13 +37700,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>31.22334937722302</v>
+        <v>31.22334937722303</v>
       </c>
       <c r="K40" t="n">
-        <v>182.4578743734212</v>
+        <v>182.4578743734213</v>
       </c>
       <c r="L40" t="n">
-        <v>289.5705688302238</v>
+        <v>289.5705688302239</v>
       </c>
       <c r="M40" t="n">
         <v>315.8056277736247</v>
@@ -37715,13 +37715,13 @@
         <v>313.7859873426785</v>
       </c>
       <c r="O40" t="n">
-        <v>273.6540707674655</v>
+        <v>273.6540707674656</v>
       </c>
       <c r="P40" t="n">
-        <v>210.4000678654835</v>
+        <v>210.4000678654836</v>
       </c>
       <c r="Q40" t="n">
-        <v>61.39224235564446</v>
+        <v>61.39224235564448</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>152.3691321950916</v>
+        <v>321.4657473671654</v>
       </c>
       <c r="K41" t="n">
-        <v>279.6128600688543</v>
+        <v>603.7582726400192</v>
       </c>
       <c r="L41" t="n">
-        <v>801.8201994534741</v>
+        <v>801.8201994534742</v>
       </c>
       <c r="M41" t="n">
-        <v>709.2192572173291</v>
+        <v>472.0595177725895</v>
       </c>
       <c r="N41" t="n">
-        <v>908.8817809892823</v>
+        <v>908.8817809892824</v>
       </c>
       <c r="O41" t="n">
-        <v>812.5872143183727</v>
+        <v>812.5872143183728</v>
       </c>
       <c r="P41" t="n">
-        <v>655.4694553212639</v>
+        <v>333.6707471497812</v>
       </c>
       <c r="Q41" t="n">
         <v>414.2284857135264</v>
       </c>
       <c r="R41" t="n">
-        <v>31.17959628768827</v>
+        <v>96.89601616067074</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,25 +37858,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>197.8331204235664</v>
+        <v>71.74208508315758</v>
       </c>
       <c r="K42" t="n">
         <v>201.5629177172189</v>
       </c>
       <c r="L42" t="n">
-        <v>571.7055711442778</v>
+        <v>317.8166628910812</v>
       </c>
       <c r="M42" t="n">
-        <v>390.4294472435424</v>
+        <v>390.4294472435425</v>
       </c>
       <c r="N42" t="n">
         <v>415.3171397365835</v>
       </c>
       <c r="O42" t="n">
-        <v>357.4898064952851</v>
+        <v>737.4697500888904</v>
       </c>
       <c r="P42" t="n">
-        <v>267.3887368298482</v>
+        <v>267.3887368298483</v>
       </c>
       <c r="Q42" t="n">
         <v>128.3188586964345</v>
@@ -37937,13 +37937,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>31.22334937722302</v>
+        <v>31.22334937722303</v>
       </c>
       <c r="K43" t="n">
-        <v>182.4578743734212</v>
+        <v>182.4578743734213</v>
       </c>
       <c r="L43" t="n">
-        <v>289.5705688302238</v>
+        <v>289.5705688302239</v>
       </c>
       <c r="M43" t="n">
         <v>315.8056277736247</v>
@@ -37952,13 +37952,13 @@
         <v>313.7859873426785</v>
       </c>
       <c r="O43" t="n">
-        <v>273.6540707674655</v>
+        <v>273.6540707674656</v>
       </c>
       <c r="P43" t="n">
-        <v>210.4000678654835</v>
+        <v>210.4000678654836</v>
       </c>
       <c r="Q43" t="n">
-        <v>61.39224235564446</v>
+        <v>61.39224235564448</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>152.3691321950916</v>
+        <v>321.4657473671654</v>
       </c>
       <c r="K44" t="n">
-        <v>279.6128600688543</v>
+        <v>279.6128600688544</v>
       </c>
       <c r="L44" t="n">
-        <v>801.8201994534741</v>
+        <v>801.8201994534742</v>
       </c>
       <c r="M44" t="n">
-        <v>908.9537544610308</v>
+        <v>908.9537544610309</v>
       </c>
       <c r="N44" t="n">
-        <v>908.8817809892823</v>
+        <v>908.8817809892824</v>
       </c>
       <c r="O44" t="n">
-        <v>812.5872143183727</v>
+        <v>812.5872143183728</v>
       </c>
       <c r="P44" t="n">
-        <v>655.4694553212639</v>
+        <v>333.6707471497812</v>
       </c>
       <c r="Q44" t="n">
-        <v>214.4939884698235</v>
+        <v>301.4796615962491</v>
       </c>
       <c r="R44" t="n">
-        <v>31.17959628768827</v>
+        <v>96.89601616067074</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>197.8331204235664</v>
+        <v>71.74208508315758</v>
       </c>
       <c r="K45" t="n">
-        <v>245.3745382345664</v>
+        <v>466.0281547297975</v>
       </c>
       <c r="L45" t="n">
-        <v>317.8166628910811</v>
+        <v>317.8166628910812</v>
       </c>
       <c r="M45" t="n">
-        <v>390.4294472435424</v>
+        <v>390.4294472435425</v>
       </c>
       <c r="N45" t="n">
         <v>415.3171397365835</v>
       </c>
       <c r="O45" t="n">
-        <v>357.4898064952851</v>
+        <v>357.4898064952852</v>
       </c>
       <c r="P45" t="n">
-        <v>267.3887368298482</v>
+        <v>267.3887368298483</v>
       </c>
       <c r="Q45" t="n">
-        <v>338.3961464322836</v>
+        <v>243.8335652774612</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,13 +38174,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>31.22334937722302</v>
+        <v>31.22334937722303</v>
       </c>
       <c r="K46" t="n">
-        <v>182.4578743734212</v>
+        <v>182.4578743734213</v>
       </c>
       <c r="L46" t="n">
-        <v>289.5705688302238</v>
+        <v>289.5705688302239</v>
       </c>
       <c r="M46" t="n">
         <v>315.8056277736247</v>
@@ -38189,13 +38189,13 @@
         <v>313.7859873426785</v>
       </c>
       <c r="O46" t="n">
-        <v>273.6540707674655</v>
+        <v>273.6540707674656</v>
       </c>
       <c r="P46" t="n">
-        <v>210.4000678654835</v>
+        <v>210.4000678654836</v>
       </c>
       <c r="Q46" t="n">
-        <v>61.39224235564446</v>
+        <v>61.39224235564448</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
